--- a/samples/5-Sheets-SA-عنية-مصانع-preview.xlsx
+++ b/samples/5-Sheets-SA-عنية-مصانع-preview.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="705">
   <si>
     <t>Name</t>
   </si>
@@ -50,91 +50,91 @@
     <t>Products</t>
   </si>
   <si>
-    <t>شركة مصنع الامل للطباعة</t>
-  </si>
-  <si>
-    <t>شركة أصول للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع اوتاد الريادة للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع تمرة للمنتجات الغذائية</t>
-  </si>
-  <si>
-    <t>شركة مصنع السلامة لدهان الطرق</t>
-  </si>
-  <si>
-    <t>مصنع زينة العالمية للدهانات</t>
-  </si>
-  <si>
-    <t>شركة تقنيات صناعة البلاستيك</t>
-  </si>
-  <si>
-    <t>مصنع نسور التقنية للمنتجات البلاستيكية</t>
-  </si>
-  <si>
-    <t>شركة سلمان بن حسن بن علي بن صالح للصناعا ت المعدنية</t>
-  </si>
-  <si>
-    <t>مصنع أرض الخزف الصناعية</t>
-  </si>
-  <si>
-    <t>مصنع شركة أبعاد النخبة</t>
-  </si>
-  <si>
-    <t>مصنع مكين باك للصناعة</t>
-  </si>
-  <si>
-    <t>شركة مصنع ريم للسخانات</t>
-  </si>
-  <si>
-    <t>مصنع بيرق المعادن للصناعات المعدنية</t>
-  </si>
-  <si>
-    <t>شركة عمليات التكسير والطاقة للخدمات النفطية شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>شركة مصنغ النواخذ لانتاج العبوات البلاستيكيه</t>
-  </si>
-  <si>
-    <t>مصنع مياه روين لتعبئة المياه</t>
-  </si>
-  <si>
-    <t>مصنع صهر الرصاص لسبك المعادن</t>
-  </si>
-  <si>
-    <t>مصنع شركة دار المعدن للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع احمد عبدالرحمن ابولسه للاسفنج والمراتب للصناعة</t>
-  </si>
-  <si>
-    <t>شركة سنامه للصناعة والتجارة والمقاولات</t>
-  </si>
-  <si>
-    <t>شركة رفال للتجليد</t>
-  </si>
-  <si>
-    <t>مصنع معبر الشرق الاوسط للوحات الكهربائية المحدوده</t>
-  </si>
-  <si>
-    <t>شركة مصنع الغماس للصناعات الكهروميكانيكية المتطورة</t>
-  </si>
-  <si>
-    <t>مصنع شركة أطلس الوطنية للمصاعد</t>
-  </si>
-  <si>
-    <t>شركة حديد التسليح السعودية المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع مركز جنرال الكتريك لتكنولوجيا صناعة الطاقة</t>
-  </si>
-  <si>
-    <t>شركة المهندس المفضل للمقاولات شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مصنع ميراد لتعبئة المياه</t>
+    <t>شركة مصنع الام...</t>
+  </si>
+  <si>
+    <t>شركة أصول للصن...</t>
+  </si>
+  <si>
+    <t>مصنع اوتاد الر...</t>
+  </si>
+  <si>
+    <t>مصنع تمرة للمن...</t>
+  </si>
+  <si>
+    <t>شركة مصنع السل...</t>
+  </si>
+  <si>
+    <t>مصنع زينة العا...</t>
+  </si>
+  <si>
+    <t>شركة تقنيات صن...</t>
+  </si>
+  <si>
+    <t>مصنع نسور التق...</t>
+  </si>
+  <si>
+    <t>شركة سلمان بن ...</t>
+  </si>
+  <si>
+    <t>مصنع أرض الخزف...</t>
+  </si>
+  <si>
+    <t>مصنع شركة أبعا...</t>
+  </si>
+  <si>
+    <t>مصنع مكين باك ...</t>
+  </si>
+  <si>
+    <t>شركة مصنع ريم ...</t>
+  </si>
+  <si>
+    <t>مصنع بيرق المع...</t>
+  </si>
+  <si>
+    <t>شركة عمليات ال...</t>
+  </si>
+  <si>
+    <t>شركة مصنغ النو...</t>
+  </si>
+  <si>
+    <t>مصنع مياه روين...</t>
+  </si>
+  <si>
+    <t>مصنع صهر الرصا...</t>
+  </si>
+  <si>
+    <t>مصنع شركة دار ...</t>
+  </si>
+  <si>
+    <t>مصنع احمد عبدا...</t>
+  </si>
+  <si>
+    <t>شركة سنامه للص...</t>
+  </si>
+  <si>
+    <t>شركة رفال للتج...</t>
+  </si>
+  <si>
+    <t>مصنع معبر الشر...</t>
+  </si>
+  <si>
+    <t>شركة مصنع الغم...</t>
+  </si>
+  <si>
+    <t>مصنع شركة أطلس...</t>
+  </si>
+  <si>
+    <t>شركة حديد التس...</t>
+  </si>
+  <si>
+    <t>مصنع مركز جنرا...</t>
+  </si>
+  <si>
+    <t>شركة المهندس ا...</t>
+  </si>
+  <si>
+    <t>مصنع ميراد لتع...</t>
   </si>
   <si>
     <t>1010112706</t>
@@ -311,136 +311,115 @@
     <t>32148</t>
   </si>
   <si>
-    <t>صنع الورق ومنتجات الورق</t>
+    <t>صنع الورق ومنت...</t>
   </si>
   <si>
     <t>صنع الاثاث</t>
   </si>
   <si>
-    <t>صنع المواد الكيميائية والمنتجات الكيميائية</t>
-  </si>
-  <si>
-    <t>صنع المنتجات الغذائية</t>
-  </si>
-  <si>
-    <t>صنع منتجات المطاط واللدائن</t>
-  </si>
-  <si>
-    <t>صنع الفلزات القاعدية</t>
-  </si>
-  <si>
-    <t>صنع منتجات المعادن اللافلزية الاخرى</t>
-  </si>
-  <si>
-    <t>صنع المعدات الكهربائية</t>
-  </si>
-  <si>
-    <t>صنع منتجات المعادن المشكلة، باستثناء الالات والمعدات</t>
+    <t>صنع المواد الك...</t>
+  </si>
+  <si>
+    <t>صنع المنتجات ا...</t>
+  </si>
+  <si>
+    <t>صنع منتجات الم...</t>
+  </si>
+  <si>
+    <t>صنع الفلزات ال...</t>
+  </si>
+  <si>
+    <t>صنع المعدات ال...</t>
   </si>
   <si>
     <t>صنع المشروبات</t>
   </si>
   <si>
-    <t>صنع الخشب ومنتجات الخشب والفلين، باستثناء الاثاث؛ صنع اصناف من القش ومواد الضفر</t>
-  </si>
-  <si>
-    <t>صنع الالات والمعدات غير المصنفة في موضع اخر</t>
-  </si>
-  <si>
-    <t>8073، الرياض 14335، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4572 الدهمشيه، السلي، الرياض 14274 7215، السعودية</t>
-  </si>
-  <si>
-    <t>6904 السمح بن مالك، الدفاع، الرياض 14315 4198، السعودية</t>
-  </si>
-  <si>
-    <t>7396، المدينة المنورة 42524 4290، السعودية</t>
-  </si>
-  <si>
-    <t>4345، المدينة الصناعية الجديدة، الرياض 14332 6997، السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road, جدة 22786، السعودية</t>
-  </si>
-  <si>
-    <t>3238، المدينة الصناعية الثانية بالدمام، الدمام 34324 7385، السعودية</t>
-  </si>
-  <si>
-    <t>2602، الصناعية، بيشة 67631 9056، السعودية</t>
-  </si>
-  <si>
-    <t>3467، المدينة الصناعية الثانية بالدمام، الدمام 34333 8265، السعودية</t>
-  </si>
-  <si>
-    <t>طريق الرياض الخرج السريع, مخرج صناعية الرفايع, ارض رقم مئتان و سته وسبعون</t>
-  </si>
-  <si>
-    <t>الموقع شارع اسطنبول جنوب - صناعية سما - قطعة رقم مائتان واثنان وثلاثون - الرياض - حي المشاعل</t>
-  </si>
-  <si>
-    <t>طريق الملك فيصل الفرعي، قاعدة الملك فيصل البحرية، جدة 22512، السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road, البرية، الرياض 11564، السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road, المشاعل، الرياض 14326، السعودية</t>
-  </si>
-  <si>
-    <t>EIDA7394, 7394 32 St, 2428، المدينة الصناعية الثانية بالدمام، الدمام 34327، السعودية</t>
-  </si>
-  <si>
-    <t>الموقع القصيم السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road, المجاردة 63938، السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road 15312، السعودية</t>
-  </si>
-  <si>
-    <t>شارع 59، المدينة الصناعية بالخرج 16419، السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road 22772، السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road, وادي الدواسر 18616، السعودية</t>
-  </si>
-  <si>
-    <t>4689 طريق الخرج الفرعي، المدينة الصناعية الجديدة، الرياض 14336 9122، السعودية</t>
-  </si>
-  <si>
-    <t>شارع العباسية، الرياض 14344، السعودية</t>
-  </si>
-  <si>
-    <t>6786 طريق الملك عبد العزيز، حي المروة، بريدة 52321 2520، السعودية</t>
-  </si>
-  <si>
-    <t>الموقع إسطنبول</t>
-  </si>
-  <si>
-    <t>4414، حي المحجر، جدة 22423 8657، السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road, المدينة الصناعية الثانية بالدمام، الظهران السعودية</t>
-  </si>
-  <si>
-    <t>QAPA2790، 2790 عمرو بن قيس بن زيد، 7289، المنطقة الصناعية، عنيزة 56468، السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road 56583، السعودية</t>
+    <t>صنع الخشب ومنت...</t>
+  </si>
+  <si>
+    <t>صنع الالات وال...</t>
+  </si>
+  <si>
+    <t>8073، الرياض 1...</t>
+  </si>
+  <si>
+    <t>4572 الدهمشيه،...</t>
+  </si>
+  <si>
+    <t>6904 السمح بن ...</t>
+  </si>
+  <si>
+    <t>7396، المدينة ...</t>
+  </si>
+  <si>
+    <t>4345، المدينة ...</t>
+  </si>
+  <si>
+    <t>Unnamed Road, ...</t>
+  </si>
+  <si>
+    <t>3238، المدينة ...</t>
+  </si>
+  <si>
+    <t>2602، الصناعية...</t>
+  </si>
+  <si>
+    <t>3467، المدينة ...</t>
+  </si>
+  <si>
+    <t>طريق الرياض ال...</t>
+  </si>
+  <si>
+    <t>الموقع شارع اس...</t>
+  </si>
+  <si>
+    <t>طريق الملك فيص...</t>
+  </si>
+  <si>
+    <t>EIDA7394, 7394...</t>
+  </si>
+  <si>
+    <t>الموقع القصيم ...</t>
+  </si>
+  <si>
+    <t>Unnamed Road 1...</t>
+  </si>
+  <si>
+    <t>شارع 59، المدي...</t>
+  </si>
+  <si>
+    <t>Unnamed Road 2...</t>
+  </si>
+  <si>
+    <t>4689 طريق الخر...</t>
+  </si>
+  <si>
+    <t>شارع العباسية،...</t>
+  </si>
+  <si>
+    <t>6786 طريق المل...</t>
+  </si>
+  <si>
+    <t>الموقع إسطنبول...</t>
+  </si>
+  <si>
+    <t>4414، حي المحج...</t>
+  </si>
+  <si>
+    <t>QAPA2790، 2790...</t>
+  </si>
+  <si>
+    <t>Unnamed Road 5...</t>
   </si>
   <si>
     <t>منطقة الرياض</t>
   </si>
   <si>
-    <t>منطقة المدينة المنورة</t>
-  </si>
-  <si>
-    <t>منطقة مكة المكرمة</t>
+    <t>منطقة المدينة ...</t>
+  </si>
+  <si>
+    <t>منطقة مكة المك...</t>
   </si>
   <si>
     <t>منطقة الشرقية</t>
@@ -452,85 +431,85 @@
     <t>منطقة القصيم</t>
   </si>
   <si>
-    <t>hazemfarwan@gmail.com</t>
-  </si>
-  <si>
-    <t>almojil1410@gmail.com</t>
-  </si>
-  <si>
-    <t>awtadalriyadah@gmail.com</t>
-  </si>
-  <si>
-    <t>q.batoul@gmail.com</t>
-  </si>
-  <si>
-    <t>alsalamah@raswaco.com</t>
-  </si>
-  <si>
-    <t>zzsma2000@gmail.com</t>
-  </si>
-  <si>
-    <t>hr_ast4@saudi-call.com</t>
-  </si>
-  <si>
-    <t>1410mhamah@gmail.com</t>
-  </si>
-  <si>
-    <t>zaky@sbinsaleh.com</t>
-  </si>
-  <si>
-    <t>windows-work@hotmail.com</t>
-  </si>
-  <si>
-    <t>yasser@jawad.com.sa</t>
-  </si>
-  <si>
-    <t>info@reem.com.sa</t>
-  </si>
-  <si>
-    <t>abh_asd@hotmail.com</t>
-  </si>
-  <si>
-    <t>aalshabat@taqa.com.sa</t>
-  </si>
-  <si>
-    <t>ihab-zain@alnawakheth-pet.com</t>
-  </si>
-  <si>
-    <t>raween.water@gmail.com</t>
-  </si>
-  <si>
-    <t>mohammed.alomran64@gmail.com</t>
-  </si>
-  <si>
-    <t>amamin@darmetal.com.sa</t>
-  </si>
-  <si>
-    <t>admin@foamco.com.sa</t>
-  </si>
-  <si>
-    <t>elwadi_factory@hotmail.com</t>
-  </si>
-  <si>
-    <t>m.amgad@obeikan.com.sa</t>
-  </si>
-  <si>
-    <t>administration@nucorp.com</t>
-  </si>
-  <si>
-    <t>hr@alghamas.com</t>
-  </si>
-  <si>
-    <t>info@atlaslifts-sa.net</t>
-  </si>
-  <si>
-    <t>ssr@saudi-steel.com.sa</t>
-  </si>
-  <si>
-    <t>eng.waleed.998@gmail.com</t>
-  </si>
-  <si>
-    <t>hr@miradwater.com</t>
+    <t>hazemfarwan@gm...</t>
+  </si>
+  <si>
+    <t>almojil1410@gm...</t>
+  </si>
+  <si>
+    <t>awtadalriyadah...</t>
+  </si>
+  <si>
+    <t>q.batoul@gmail...</t>
+  </si>
+  <si>
+    <t>alsalamah@rasw...</t>
+  </si>
+  <si>
+    <t>zzsma2000@gmai...</t>
+  </si>
+  <si>
+    <t>hr_ast4@saudi-...</t>
+  </si>
+  <si>
+    <t>1410mhamah@gma...</t>
+  </si>
+  <si>
+    <t>zaky@sbinsaleh...</t>
+  </si>
+  <si>
+    <t>windows-work@h...</t>
+  </si>
+  <si>
+    <t>yasser@jawad.c...</t>
+  </si>
+  <si>
+    <t>info@reem.com....</t>
+  </si>
+  <si>
+    <t>abh_asd@hotmai...</t>
+  </si>
+  <si>
+    <t>aalshabat@taqa...</t>
+  </si>
+  <si>
+    <t>ihab-zain@alna...</t>
+  </si>
+  <si>
+    <t>raween.water@g...</t>
+  </si>
+  <si>
+    <t>mohammed.alomr...</t>
+  </si>
+  <si>
+    <t>amamin@darmeta...</t>
+  </si>
+  <si>
+    <t>admin@foamco.c...</t>
+  </si>
+  <si>
+    <t>elwadi_factory...</t>
+  </si>
+  <si>
+    <t>m.amgad@obeika...</t>
+  </si>
+  <si>
+    <t>administration...</t>
+  </si>
+  <si>
+    <t>hr@alghamas.co...</t>
+  </si>
+  <si>
+    <t>info@atlaslift...</t>
+  </si>
+  <si>
+    <t>ssr@saudi-stee...</t>
+  </si>
+  <si>
+    <t>eng.waleed.998...</t>
+  </si>
+  <si>
+    <t>hr@miradwater....</t>
   </si>
   <si>
     <t>+966114548967</t>
@@ -635,91 +614,8 @@
     <t>0163976277</t>
   </si>
   <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3921120005 - ملصقات وشعارات 100.00 طن متري  3926100016 - بطاقات بلاستيكية للتغليف 150.00 طن متري  4802690016 - ورق كتابة وطباعة 400.00 طن متري  4817100004 - ظروف عادية 300.00 طن متري  4817100007 - ظروف متنوعة مع الطباعة التعريفية 300.00 طن متري  4817100008 - ظروف طرود بريدية 100.00 طن متري  4820400009 - ورق طباعة 250.00 وحدة  4901993001 - كتب وكراسات ودفاتر تجارية 250.00 طن متري  3920200035 - ملصقات بلاستيكية مطبوعة 100.00 طن متري  4823909405 - ورق نماذج كمبيوتر مطبوعة 1000.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  7610909044 - مطابخ وكاونترات المنيوم 100000.00 متر طولى</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3207300002 - دهانات متنوعة 3000.00 طن متري  3506100006 - غراء 1000.00 طن متري  8310001003 - لوحات ارشاديه واعلانيه ومروريه مضاءه وغير مضاءه 2000.00 وحدة  2932120001 - دهانات بودرة للطرق 3000.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  0804101003 - تمور مجهزة ومحشوة 20000.00 طن متري  0804109015 - تمور مجهزة ومعبأة 100000.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3207100004 - دهانات ثيرموبلاستيك للطرق 4000.00 طن متري  3207300002 - دهانات متنوعة 450.00 طن متري  7018200001 - حبيبات زجاج 1000.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3207300002 - دهانات متنوعة 8000.00 طن متري  3814001009 - مذيبات 200.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3923300008 - قوارير بولي ايثيلين 3000.00 طن متري  3923300026 - جوالين بلاستيكية 2000.00 طن متري  3923300049 - عبوات من (بي أي تي) بولي إيثلين 6000.00 طن متري  3923500001 - اغطية بلاستيكية للعبوات 20000000.00 طن متري  3923500007 - اشرطة بلاستيكية (مسطحة) للتحزيم والتغليف 10000000.00 طن متري  3923900017 - فيلم بلاستيكي للتغليف 10000000.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3921190008 - مفارش سفرة طعام بلاستيكية 200.00 طن متري  3923210005 - اكياس بلاستيكية عادية سادة ومطبوعة 500.00 طن متري  3923210033 - اكياس ولفات ومفارش سفرة بلاستيكية سادة ومطبوعة 500.00 طن متري  3915900008 - حبيبات بلاستيكية معاد تدويرها 1500.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  7301200007 - هياكل معدنية 4200.00 طن متري  7307190014 - تشكيل معادن 4200.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  6809902009 - ديكورات جبسية مقواه بألياف زجاجية (جي آر سي) 10000.00 متر مربع</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  8535300004 - مفاتيح كهربائية 520000.00 طن متري  8535300009 - افياش كهربائية 450000.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3921130012 - رولات نايلون شفاف للتعبئة والتغليف 200.00 طن متري  4804590001 - رولات ورق 60.00 طن متري  4823690021 - اكواب وصحون ورقية ذات الاستخدام الواحد 800.00 طن متري  7606110008 - لفات رقائق المنيوم لتعبئة وتغليف المواد الغذائية 200.00 طن متري  7615102000 - اطباق وصوانى من رقائق الومنيوم 1000.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  8419191002 - سخانات مياه تعمل بالطاقه الشمسيه 5000.00 وحدة  8479600002 - مكيفات صحراوية 20000.00 وحدة  8516100004 - سخانات مياه كهربائية 150000.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  7308300008 - ابواب حديدية 10000.00 متر مربع  7308300009 - نوافذ حديدية 15000.00 متر مربع  7308400026 - درابزينات حديدية 2500.00 طن متري  7610905002 - واجهات مباني المنيوم 20000.00 متر مربع  7610909048 - واجهات مباني من الالمنيوم والاستانلس ستيل 15000.00 متر مربع  7610909050 - واجهات ومنتجات زجاجية للمباني 15000.00 متر مربع  7326209019 - مشغولات متنوعة من الكلادنج 20000.00 متر مربع</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  2508100004 - صلصال عضوي ( مزود لزوجة سوائل الحفر ) 200.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3922900016 - عبوات بلاستيكية ذات الاستخدام الواحد 50.00 طن متري  3923109024 - عبوات بلاستيكية لتعبئة الالبان وجوالين وعبوات اخرى 200.00 طن متري  3923109025 - عبوات بلاستيكية لتعبئة الكلوركس والسونك 50.00 طن متري  3923109059 - عبوات بلاستيكية لتعبئة الخضروات والفواكه 150.00 طن متري  3923300054 - عبوات وبرطمانات من بي.أي.تي. 500.00 طن متري  3923300096 - قوارير بي.أي.تي. 100.00 طن متري  3923500008 - اغطية بلاستيكية للعبوات والقوارير 200.00 طن متري  3923900021 - عبوات بولي بروبلين وبولي ستايرين وبولي اثيلين ترفثلات للتغليف 100.00 طن متري  3924109004 - عبوات بلاستيكية لتعبئة الاغذية. 300.00 طن متري  8424901000 - رؤوس بلاستيكيه لنفث السوائل بالضغط المتكرر 50.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  2201101004 - مياه معبأة في كاسات 250 ملل 3000000.00 لتر  2201101018 - مياه معبأة في عبوات سعة (25ر0 - 50ر0 - 5ر1) لتر 500000.00 لتر</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  7801100001 - رصاص نقي 15000.00 طن متري  7801910002 - رصاص نقي وسبيكة رصاص انتموني 1800.00 طن متري  7801990001 - قوالب سبائك رصاص نقي(من الخردة-متوسط وزن القالب 25كجم) 1800.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  4409101001 - بلاط خشبي للارضيات 1000.00 متر مربع  4412100002 - الواح خشبية متعاكس 5000.00 متر مربع  4415109003 - صندوق قاطع كهرباء 500.00 وحدة  4418200006 - ابواب خشبية 10000.00 متر مربع  4418600000 - أعمدة و عوارض 2000.00 طن متري  4418700000 - ألواح الأرضيات المجمعة: 2000.00 متر مربع  4420909004 - منتجات خشبية متنوعة 10000.00 متر مربع  7222190001 - قطاعات مفرغة استانلس ستيل 5000.00 وحدة  7308300051 - ابواب ونوافذ حديدية مزخرفة 2000.00 طن متري  7308400019 - درابزينات واسوار حماية 2500.00 طن متري  7326909406 - سلالم ودرابزينات استانلس ستيل 300.00 متر طولى  7610109014 - ابواب ونوافذ وواجهات المنيوم 10000.00 متر مربع  8307900001 - علب توزيع جدارية من حديد 1000.00 وحدة  9406003302 - هناجر ومستودعات حديدية ومشغولات معدنية 10.00 طن متري  7308200022 - اعمدة استانلس ستيل 300.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  9401690008 - كنب جلد 1200.00 وحدة  9401690017 - طقم كنب 15000.00 وحدة  9403309016 - دواليب وطاولات 2200.00 وحدة  9403402003 - اطقم سفرة 4500.00 وحدة  9404100005 - اسفنج مرن 150000.00 طن متري  9404901000 - لحف_ 20000.00 وحدة  9404902002 - مراتب سليب 60000.00 وحدة  9404902004 - مخدات 45000.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3901900008 - حبيبات بلاستيكية معاد تدويرها 100.00 طن متري  3917210014 - انابيب بولي ايثلين للري بالتنقيط ولوازمها. 800.00 طن متري  3917230009 - انابيب من بي .في.سي 175.00 طن متري  3917390019 - ليات ومواسير بلاستيكية للتمديدات الكهربائية والزراعية 75.00 طن متري  3923109039 - منتجات بلاستيكية متنوعة بطريقة الحقن 150.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3926100011 - ادوات مكتبية ومدرسية 900000.00 وحدة  4205005001 - علب خاصة للكتب 450000.00 وحدة  4820100022 - مفكرات 300000.00 وحدة  4820900004 - تجليد فني للكتب 1500000.00 وحدة  4820900005 - تجليد مذهب للكتب 300000.00 وحدة  4910000005 - تقاويم 600000.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  8536200001 - قواطع كهربائية حتى 800 امبير 300000.00 وحدة  8536200002 - قواطع كهربائية 200000.00 وحدة  8537100001 - كبائن تحكم قابله للبرمجة 30000.00 وحدة  8537200004 - لوحات توزيع كهربائية من 100 - 6300 امبير 5000.00 وحدة  8537200007 - "لوحات تحكم كهربائية ضغط منخفض (للمضخات , المراوح , المكيفات)" 150.00 وحدة  8537200013 - لوحات كهربائية جهد مرتفع حتى 36 ك فولت ومحطات مدمجة حتى 36 ك فولت 500.00 وحدة  8537200022 - لوحات وانظمة ومرحلات للحماية والتحكم واجهزة التحكم الالى 100.00 وحدة  8537200026 - لوحات تحكم كاملة بالاجهزة 1000.00 وحدة  8537200032 - لوحات توزيع وتحكم كهربائية 1000.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  7216500010 - مسبوكات حديد زهر اخرى و صمامات 1000.00 وحدة  7308300001 - ابواب صاج معزولة 1000.00 متر مربع  7325109003 - فلاتر مياه الري 1000.00 طن متري  8408900001 - محركات ديزل ومولدات كهرباء 100.00 وحدة  8413199002 - مضخات مياه ضغط عالي 1000.00 وحدة  8413700001 - مضخات مياه طارده مركزية ومحورية ومضخات اطفاء الحريق 500.00 وحدة  8413700002 - مضخات مياه ومواد بترولية وكيميائية 600.00 وحدة  8413811002 - مضخات مياه توربينية غاطسة كهربائية (للابار) 15000.00 وحدة  8413811012 - مضخات غاطسة ستانلس ستيل 1000.00 وحدة  8413811014 - مضخات وغطاسات مياه 1000.00 وحدة  8413819013 - مضخات مياه و مجاري 1000.00 وحدة  8413910015 - مواسير وتيوبات للمضخات 1000.00 طن متري  8421219015 - فلاتر مياه للمصانع والمعامل 1000.00 وحدة  8432300006 - الات ووحدات زراعية (بذارات-ناشرات سماد...الخ) 200.00 وحدة  8481300008 - قطع توصيل للعدادات والصمامات 1000.00 وحدة  8481809012 - صمامات ومستلزمات شبكات المياه 1000.00 وحدة  8716391002 - سطحات تريلات 100.00 وحدة  8716391023 - قلابات وسطحات 100.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  8428100002 - مصاعد كهربائية متنوعة (للاشخاص والبضائع) 2000.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  3926907001 - سيور ناقلة للحركة 13771.00 متر طولى  7301200000 - زوايا واشكال وقطاعات من حديد او صلب 110526.00 طن متري  7314390004 - شبك حديد تسليح ملحوم 4145.00 طن متري</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  8411220001 - وحدات توليد توربينية متنوعة (غازية/بخارية) 11.00 وحدة  8411910003 - ريش توربينات دفع 8.00 وحدة  8411910004 - فوهات نفث وقود 10.00 وحدة  8411910005 - وصلات انتقالية 40.00 وحدة  8414400001 - ضواغط هوائية (كمبروسور) 30.00 وحدة  8414900000 - اجزاء لمضخات الهواء ومضخات تفريغ الهواء واغطيه التهويه 3.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  7308300041 - ابواب كراجات ومستودعات 30.00 وحدة  7308901001 - مشغولات جمالية وزخرفية للاسوار والكريتال 200.00 متر مربع  7308901007 - كبائن طفايات حريق 120.00 وحدة  7308901009 - صناديق وبكرات اطفاء حريق 1400.00 وحدة  7308901016 - صناديق وطفايات حريق 500.00 وحدة  8424100016 - طفايات حريق بودرة (يدوية) 1000.00 وحدة  8424100024 - انظمة اطفاء حريق بالرش 15000.00 وحدة</t>
-  </si>
-  <si>
-    <t>المنتجات  البند الجمركي كمية الانتاج المرخصة وحدة القياس  2201101004 - مياه معبأة في كاسات 250 ملل 1000000.00 لتر  2201101016 - مياه معبأة في عبوات مغلقة سعة 3 - 5 جالون 740000.00 لتر  2201101025 - مياه معباة في عبوات بولي كربونات سعة 5 جالون 100000.00 لتر  2201101033 - مياه معباة في عبوات بلاستيكية سعة (5) لتر 440000.00 لتر</t>
+    <t>المنتجات
+البند...</t>
   </si>
   <si>
     <t>Company Name</t>
@@ -734,124 +630,118 @@
     <t>Industrial City</t>
   </si>
   <si>
-    <t>الشركة العربية لصناعة البلاستيك - أبلكو</t>
-  </si>
-  <si>
-    <t>مصنع المطرودي لهياكل السيارات</t>
-  </si>
-  <si>
-    <t>مصنع بركة العربية للمعجنات والحلويات</t>
-  </si>
-  <si>
-    <t>مصنع أول العالمية لتعبئة وتغليف المواد الغذائية</t>
-  </si>
-  <si>
-    <t>شركة مصنع حلويات الشام لإنتاج الحلويات. المحدوده</t>
-  </si>
-  <si>
-    <t>مصنع مروج الجزيرة لأعمال الحديد</t>
-  </si>
-  <si>
-    <t>مصنع التواقة للمنتجات الغذائية</t>
-  </si>
-  <si>
-    <t>مجموعة الأنظمة الصناعية</t>
-  </si>
-  <si>
-    <t>مصنع الجعيب للبلاستيك والتغليف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شركة مصنع كريستوود للاعمال الخشبية </t>
-  </si>
-  <si>
-    <t>مصنع رشة نواعم للعطور</t>
-  </si>
-  <si>
-    <t>مصنع الفا للاحبار ومواد الطباعة الصناعية _ شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مصنع ألمنيوم البحر الأحمر للأواني المنزلية</t>
-  </si>
-  <si>
-    <t>مصنع طه العمرانية للمباني الحديدية</t>
-  </si>
-  <si>
-    <t>المصنع الدولي للمنتجات المعدنية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شركة الأسقف والحوائط المعزولة للصناعة </t>
-  </si>
-  <si>
-    <t>فرع شركة الحضارة للصناعات الخشبية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصنع واسط السعودية لانظمة الترفيه و التجميل </t>
-  </si>
-  <si>
-    <t>مصنع هبة لصناعة أجهزة إطفاء الحريق المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع شركة سنابل السلام للصناعات الغذائية</t>
-  </si>
-  <si>
-    <t>مصنع ميلانو الدولية للمطابخ</t>
-  </si>
-  <si>
-    <t>مصنع شركة إعمار جدة الصناعية للزوايا والمبسطات الحديدية</t>
-  </si>
-  <si>
-    <t>مصنع محمد جميل هاشم عزوز للحلي والمجوهرات والهدايا</t>
-  </si>
-  <si>
-    <t>شركة أركان الصلب لصناعة الحديد</t>
-  </si>
-  <si>
-    <t>مصنع الجاز للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع تجديد الاطارات</t>
-  </si>
-  <si>
-    <t>مصنع مهناء بن صالح المهناء</t>
-  </si>
-  <si>
-    <t>شركة الطيف السعودية للدهانات</t>
-  </si>
-  <si>
-    <t>مصنع علي غرم الله العمري للصناعه</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صنع منتجات المطاط والبلاستك</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صنع المركبات ذات المحركات والمركبات المقطورة ونصف المقطورة</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صناعة المنتجات الغذائية</t>
+    <t>الشركة العربية...</t>
+  </si>
+  <si>
+    <t>مصنع المطرودي ...</t>
+  </si>
+  <si>
+    <t>مصنع بركة العر...</t>
+  </si>
+  <si>
+    <t>مصنع أول العال...</t>
+  </si>
+  <si>
+    <t>شركة مصنع حلوي...</t>
+  </si>
+  <si>
+    <t>مصنع مروج الجز...</t>
+  </si>
+  <si>
+    <t>مصنع التواقة ل...</t>
+  </si>
+  <si>
+    <t>مجموعة الأنظمة...</t>
+  </si>
+  <si>
+    <t>مصنع الجعيب لل...</t>
+  </si>
+  <si>
+    <t>شركة مصنع كريس...</t>
+  </si>
+  <si>
+    <t>مصنع رشة نواعم...</t>
+  </si>
+  <si>
+    <t>مصنع الفا للاح...</t>
+  </si>
+  <si>
+    <t>مصنع ألمنيوم ا...</t>
+  </si>
+  <si>
+    <t>مصنع طه العمرا...</t>
+  </si>
+  <si>
+    <t>المصنع الدولي ...</t>
+  </si>
+  <si>
+    <t>شركة الأسقف وا...</t>
+  </si>
+  <si>
+    <t>فرع شركة الحضا...</t>
+  </si>
+  <si>
+    <t>مصنع واسط السع...</t>
+  </si>
+  <si>
+    <t>مصنع هبة لصناع...</t>
+  </si>
+  <si>
+    <t>مصنع شركة سناب...</t>
+  </si>
+  <si>
+    <t>مصنع ميلانو ال...</t>
+  </si>
+  <si>
+    <t>مصنع شركة إعما...</t>
+  </si>
+  <si>
+    <t>مصنع محمد جميل...</t>
+  </si>
+  <si>
+    <t>شركة أركان الص...</t>
+  </si>
+  <si>
+    <t>مصنع الجاز للص...</t>
+  </si>
+  <si>
+    <t>مصنع تجديد الا...</t>
+  </si>
+  <si>
+    <t>مصنع مهناء بن ...</t>
+  </si>
+  <si>
+    <t>شركة الطيف الس...</t>
+  </si>
+  <si>
+    <t>مصنع علي غرم ا...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صنع منتجات ال...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صنع المركبات ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صناعة المنتجا...</t>
   </si>
   <si>
     <t xml:space="preserve"> أخرى</t>
   </si>
   <si>
-    <t xml:space="preserve"> صنع الخشب ومنتجات الخشب والفلين، باستثناء الاثاث؛ صنع اصناف من القش ومواد الضفر</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صنع المواد الكيميائية والمنتجات الكيميائية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صنع منتجات المعادن المشكلة، باستثناء الالات والمعدات</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صنع منتجات المعادن اللافلزية الأخرى</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الصناعات التحويلية الأخرى</t>
+    <t xml:space="preserve"> صنع الخشب ومن...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صنع المواد ال...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الصناعات التح...</t>
   </si>
   <si>
     <t xml:space="preserve"> صنع الاثاث</t>
   </si>
   <si>
-    <t xml:space="preserve"> صنع الالات والمعدات غير المصنفة في موضع اخر</t>
+    <t xml:space="preserve"> صنع الالات وا...</t>
   </si>
   <si>
     <t>+966114980723</t>
@@ -1001,97 +891,97 @@
     <t>+966503021344</t>
   </si>
   <si>
-    <t>info@aplaco.com.sa</t>
-  </si>
-  <si>
-    <t>fahadsalah24@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@brakah.com</t>
-  </si>
-  <si>
-    <t>a_m1100@hotmail.com</t>
-  </si>
-  <si>
-    <t>mahmoud-alnafi@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@mjesteel.com</t>
-  </si>
-  <si>
-    <t>n.alzupaidi@foodunitco.com</t>
-  </si>
-  <si>
-    <t>abdobm@naizak.com</t>
-  </si>
-  <si>
-    <t>khalifas@joaib.com</t>
-  </si>
-  <si>
-    <t>century@aujan.com.sa</t>
-  </si>
-  <si>
-    <t>s3wde@hotmail.com</t>
-  </si>
-  <si>
-    <t>alphainks@alphafactory.sa</t>
-  </si>
-  <si>
-    <t>sal@rsaluminium.com.sa</t>
-  </si>
-  <si>
-    <t>m.taha@tahaurban.com</t>
-  </si>
-  <si>
-    <t>hamad70_m@yahoo.com</t>
-  </si>
-  <si>
-    <t>lutfihassan@yahoo.com</t>
-  </si>
-  <si>
-    <t>m.alashi@hadarawood.com</t>
-  </si>
-  <si>
-    <t>tariqalhaidary@gmail.com</t>
-  </si>
-  <si>
-    <t>saad.fahad@heba.com.sa</t>
-  </si>
-  <si>
-    <t>majdi@safm.com.sa</t>
-  </si>
-  <si>
-    <t>gm@milanoint.com</t>
-  </si>
-  <si>
-    <t>eamaarjeddah@gmail.com</t>
-  </si>
-  <si>
-    <t>mohamed@azzouzhouse.com</t>
-  </si>
-  <si>
-    <t>aalgeaidi@fadid.net</t>
-  </si>
-  <si>
-    <t>info@aljazzgroup.com</t>
-  </si>
-  <si>
-    <t>rts_trd@hotmail.com</t>
-  </si>
-  <si>
-    <t>mohna.almohna@gmail.com</t>
-  </si>
-  <si>
-    <t>m.a.b644@hotmail.com</t>
-  </si>
-  <si>
-    <t>abuamer1344@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الرياض الأولى</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الرياض الثانية</t>
+    <t>info@aplaco.co...</t>
+  </si>
+  <si>
+    <t>fahadsalah24@h...</t>
+  </si>
+  <si>
+    <t>info@brakah.co...</t>
+  </si>
+  <si>
+    <t>a_m1100@hotmai...</t>
+  </si>
+  <si>
+    <t>mahmoud-alnafi...</t>
+  </si>
+  <si>
+    <t>info@mjesteel....</t>
+  </si>
+  <si>
+    <t>n.alzupaidi@fo...</t>
+  </si>
+  <si>
+    <t>abdobm@naizak....</t>
+  </si>
+  <si>
+    <t>khalifas@joaib...</t>
+  </si>
+  <si>
+    <t>century@aujan....</t>
+  </si>
+  <si>
+    <t>s3wde@hotmail....</t>
+  </si>
+  <si>
+    <t>alphainks@alph...</t>
+  </si>
+  <si>
+    <t>sal@rsaluminiu...</t>
+  </si>
+  <si>
+    <t>m.taha@tahaurb...</t>
+  </si>
+  <si>
+    <t>hamad70_m@yaho...</t>
+  </si>
+  <si>
+    <t>lutfihassan@ya...</t>
+  </si>
+  <si>
+    <t>m.alashi@hadar...</t>
+  </si>
+  <si>
+    <t>tariqalhaidary...</t>
+  </si>
+  <si>
+    <t>saad.fahad@heb...</t>
+  </si>
+  <si>
+    <t>majdi@safm.com...</t>
+  </si>
+  <si>
+    <t>gm@milanoint.c...</t>
+  </si>
+  <si>
+    <t>eamaarjeddah@g...</t>
+  </si>
+  <si>
+    <t>mohamed@azzouz...</t>
+  </si>
+  <si>
+    <t>aalgeaidi@fadi...</t>
+  </si>
+  <si>
+    <t>info@aljazzgro...</t>
+  </si>
+  <si>
+    <t>rts_trd@hotmai...</t>
+  </si>
+  <si>
+    <t>mohna.almohna@...</t>
+  </si>
+  <si>
+    <t>m.a.b644@hotma...</t>
+  </si>
+  <si>
+    <t>abuamer1344@gm...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الرياض الأولى...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الرياض الثاني...</t>
   </si>
   <si>
     <t xml:space="preserve"> عسيـــر</t>
@@ -1100,10 +990,10 @@
     <t xml:space="preserve"> سدير </t>
   </si>
   <si>
-    <t xml:space="preserve"> الدمام الثانية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الدمام الأولى</t>
+    <t xml:space="preserve"> الدمام الثاني...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الدمام الأولى...</t>
   </si>
   <si>
     <t xml:space="preserve"> جدة الأولى</t>
@@ -1112,7 +1002,7 @@
     <t xml:space="preserve"> جدة الثالثة</t>
   </si>
   <si>
-    <t xml:space="preserve"> الدمام الثالثة</t>
+    <t xml:space="preserve"> الدمام الثالث...</t>
   </si>
   <si>
     <t xml:space="preserve"> الخرج</t>
@@ -1151,253 +1041,240 @@
     <t>More Info</t>
   </si>
   <si>
-    <t>مصنع الانجاز الاول للمنتجات البلاستيكية</t>
-  </si>
-  <si>
-    <t>شركة المصنع العربي للأعمال الحديدية</t>
-  </si>
-  <si>
-    <t>شركة خدمات الإسمنت للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع المجد للاسفلت المستحلب فرع شركة المجدالدولية لاعمال التشغيل</t>
-  </si>
-  <si>
-    <t>مصنع الرياض المخملي</t>
-  </si>
-  <si>
-    <t>مصنع سفير للعلب الفاخره</t>
-  </si>
-  <si>
-    <t>شركة مصاغ للذهب والمجوهرات</t>
-  </si>
-  <si>
-    <t>شركه البلاد كتاليست المحدودة</t>
-  </si>
-  <si>
-    <t>شركة تناتل للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة تدوير البيئة الاهلية</t>
-  </si>
-  <si>
-    <t>شركة مصنع رطاب الوطن للتمور</t>
-  </si>
-  <si>
-    <t>مصنع عبدالله عبدالعزيز الدخيل للغازات الصناعيه</t>
-  </si>
-  <si>
-    <t>شركة مصنع طيبة للمنتجات الورقية والبلاستيكية</t>
-  </si>
-  <si>
-    <t>شركة ماتيليك السعودية للصناعات المحدودة</t>
-  </si>
-  <si>
-    <t>شركة الرياض للصناعات المعدنية</t>
-  </si>
-  <si>
-    <t>الشركه الصناعيه للارفف العالميه المحدوده</t>
-  </si>
-  <si>
-    <t>شركة فرش اسنان تارا</t>
-  </si>
-  <si>
-    <t>شركة مصنع دهانات المملكة</t>
-  </si>
-  <si>
-    <t>الشركه العربيه لمركبات البلاستيك ايه بي سي</t>
-  </si>
-  <si>
-    <t>مصنع مران للصناعة</t>
-  </si>
-  <si>
-    <t>شركة تعزيز المتقدمة للصناعة</t>
-  </si>
-  <si>
-    <t>شركة مصنع الراجحي للاسفنج المحدودة</t>
-  </si>
-  <si>
-    <t>شركة باينهيل العربية للاغذية المحدودة</t>
-  </si>
-  <si>
-    <t>شركة الرواد العالمية للتغليف المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع معدات القمة للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع خالد صالح العثيم لانتاج المعجنات والحلويات والشوكولاته</t>
-  </si>
-  <si>
-    <t>مصنع ليات العايد</t>
-  </si>
-  <si>
-    <t>مصنع الشعيبي للبلاستيك</t>
-  </si>
-  <si>
-    <t>شركة الإسمنت السعودية</t>
-  </si>
-  <si>
-    <t>Abdullah Fahad alQahtani Plastic Products Factory</t>
-  </si>
-  <si>
-    <t>Al Arabi Factory For Steel Works</t>
-  </si>
-  <si>
-    <t>Cement Service Industries Co CemServ</t>
-  </si>
-  <si>
-    <t>Almajd asphalt emulsion factory</t>
-  </si>
-  <si>
-    <t>Riyadh Velvet Factory</t>
-  </si>
-  <si>
-    <t>al-Safeer Factory</t>
-  </si>
-  <si>
-    <t>A factory made for gold and jewelry</t>
-  </si>
-  <si>
-    <t>albilad catalyst company</t>
-  </si>
-  <si>
-    <t>Tanatel Contracting Company</t>
-  </si>
-  <si>
-    <t>Tadweeer National Environment Recycling Co</t>
-  </si>
-  <si>
-    <t>Retab alwatan dates factory co</t>
-  </si>
-  <si>
-    <t>Aldakheel Industrial Gases Plant</t>
-  </si>
-  <si>
-    <t>Taiba Paper Products Factory</t>
-  </si>
-  <si>
-    <t>SAUDI MATELEC CO FOR INDUSTRIES LTD</t>
-  </si>
-  <si>
-    <t>Riyadh Metal Ind. Co</t>
-  </si>
-  <si>
-    <t>UNIVERSAL SHELVES INDUSTRIAL CO LTD</t>
-  </si>
-  <si>
-    <t>Tara Toothbrush Company</t>
-  </si>
-  <si>
-    <t>Kingdom Paints Factory Co</t>
-  </si>
-  <si>
-    <t>Arabian Plastic Compounds Co Ltd</t>
-  </si>
-  <si>
-    <t>Saudi Engineers For Metal Fabrication</t>
-  </si>
-  <si>
-    <t>Tazez Advanced Industrial Co Ltd</t>
-  </si>
-  <si>
-    <t>Alrajhi foam factory CO LTD</t>
-  </si>
-  <si>
-    <t>Pinehill Arabia Food Ltd.</t>
-  </si>
-  <si>
-    <t>ROWAD Global PACAKGING</t>
-  </si>
-  <si>
-    <t>Alqimma Equipment Factory</t>
-  </si>
-  <si>
-    <t>khaled saleh al othaim factory</t>
-  </si>
-  <si>
-    <t>AL AYED HOSES FACTORY</t>
-  </si>
-  <si>
-    <t>alshoaibi plastic factory</t>
+    <t>مصنع الانجاز ا...</t>
+  </si>
+  <si>
+    <t>شركة المصنع ال...</t>
+  </si>
+  <si>
+    <t>شركة خدمات الإ...</t>
+  </si>
+  <si>
+    <t>مصنع المجد للا...</t>
+  </si>
+  <si>
+    <t>مصنع الرياض ال...</t>
+  </si>
+  <si>
+    <t>مصنع سفير للعل...</t>
+  </si>
+  <si>
+    <t>شركة مصاغ للذه...</t>
+  </si>
+  <si>
+    <t>شركه البلاد كت...</t>
+  </si>
+  <si>
+    <t>شركة تناتل للم...</t>
+  </si>
+  <si>
+    <t>شركة تدوير الب...</t>
+  </si>
+  <si>
+    <t>شركة مصنع رطاب...</t>
+  </si>
+  <si>
+    <t>مصنع عبدالله ع...</t>
+  </si>
+  <si>
+    <t>شركة مصنع طيبة...</t>
+  </si>
+  <si>
+    <t>شركة ماتيليك ا...</t>
+  </si>
+  <si>
+    <t>شركة الرياض لل...</t>
+  </si>
+  <si>
+    <t>الشركه الصناعي...</t>
+  </si>
+  <si>
+    <t>شركة فرش اسنان...</t>
+  </si>
+  <si>
+    <t>شركة مصنع دهان...</t>
+  </si>
+  <si>
+    <t>الشركه العربيه...</t>
+  </si>
+  <si>
+    <t>مصنع مران للصن...</t>
+  </si>
+  <si>
+    <t>شركة تعزيز الم...</t>
+  </si>
+  <si>
+    <t>شركة مصنع الرا...</t>
+  </si>
+  <si>
+    <t>شركة باينهيل ا...</t>
+  </si>
+  <si>
+    <t>شركة الرواد ال...</t>
+  </si>
+  <si>
+    <t>مصنع معدات الق...</t>
+  </si>
+  <si>
+    <t>مصنع خالد صالح...</t>
+  </si>
+  <si>
+    <t>مصنع ليات العا...</t>
+  </si>
+  <si>
+    <t>مصنع الشعيبي ل...</t>
+  </si>
+  <si>
+    <t>شركة الإسمنت ا...</t>
+  </si>
+  <si>
+    <t>Abdullah Fahad...</t>
+  </si>
+  <si>
+    <t>Al Arabi Facto...</t>
+  </si>
+  <si>
+    <t>Cement Service...</t>
+  </si>
+  <si>
+    <t>Almajd asphalt...</t>
+  </si>
+  <si>
+    <t>Riyadh Velvet ...</t>
+  </si>
+  <si>
+    <t>al-Safeer Fact...</t>
+  </si>
+  <si>
+    <t>A factory made...</t>
+  </si>
+  <si>
+    <t>albilad cataly...</t>
+  </si>
+  <si>
+    <t>Tanatel Contra...</t>
+  </si>
+  <si>
+    <t>Tadweeer Natio...</t>
+  </si>
+  <si>
+    <t>Retab alwatan ...</t>
+  </si>
+  <si>
+    <t>Aldakheel Indu...</t>
+  </si>
+  <si>
+    <t>Taiba Paper Pr...</t>
+  </si>
+  <si>
+    <t>SAUDI MATELEC ...</t>
+  </si>
+  <si>
+    <t>Riyadh Metal I...</t>
+  </si>
+  <si>
+    <t>UNIVERSAL SHEL...</t>
+  </si>
+  <si>
+    <t>Tara Toothbrus...</t>
+  </si>
+  <si>
+    <t>Kingdom Paints...</t>
+  </si>
+  <si>
+    <t>Arabian Plasti...</t>
+  </si>
+  <si>
+    <t>Saudi Engineer...</t>
+  </si>
+  <si>
+    <t>Tazez Advanced...</t>
+  </si>
+  <si>
+    <t>Alrajhi foam f...</t>
+  </si>
+  <si>
+    <t>Pinehill Arabi...</t>
+  </si>
+  <si>
+    <t>ROWAD Global P...</t>
+  </si>
+  <si>
+    <t>Alqimma Equipm...</t>
+  </si>
+  <si>
+    <t>khaled saleh a...</t>
+  </si>
+  <si>
+    <t>AL AYED HOSES ...</t>
+  </si>
+  <si>
+    <t>alshoaibi plas...</t>
   </si>
   <si>
     <t>SAUDI CEMENT</t>
   </si>
   <si>
-    <t>صنع المنتجات النفطية المكررة            صُنع المواد الكيميائية الأساسية ، صُنع الأسمدة والمركّبات الآزوتية واللدائن والمطاط التركيبي في أشكال أوّلية            صنع منتجات المطاط            صنع المنتجات اللدائنية</t>
-  </si>
-  <si>
-    <t>المنتجات المعدنية            صناعة المنتجات المعدنية الإنشائية والصهاريج والخزانات ومولدات البخار</t>
-  </si>
-  <si>
-    <t>صناعة الآلات متعددة الأغراض</t>
-  </si>
-  <si>
-    <t>المنتجات الكيماوية            صنع منتجات المعادن اللافلزية غير المصنفة في موضع أخر            صُنع المواد الكيميائية الأساسية ، صُنع الأسمدة والمركّبات الآزوتية واللدائن والمطاط التركيبي في أشكال أوّلية            صنع منتجات كيميائية أخرى            صنع المواد الصيدلانية والمنتجات الدوائية الكيميائية والنباتية            صنع منتجات المعادن اللافلزية غير المصنفة في موضع أخر</t>
-  </si>
-  <si>
-    <t>صُنع المنسوجات الأخرى</t>
-  </si>
-  <si>
-    <t>صُنع الورق ومنتجات الورق</t>
-  </si>
-  <si>
-    <t>صُنع المجوهرات والحلي والأصناف المتصلة</t>
-  </si>
-  <si>
-    <t>صنع منتجات كيميائية أخرى</t>
+    <t>المنتجات المعد...</t>
+  </si>
+  <si>
+    <t>صناعة الآلات م...</t>
+  </si>
+  <si>
+    <t>المنتجات الكيم...</t>
+  </si>
+  <si>
+    <t>صُنع المنسوجات...</t>
+  </si>
+  <si>
+    <t>صُنع الورق ومن...</t>
+  </si>
+  <si>
+    <t>صُنع المجوهرات...</t>
+  </si>
+  <si>
+    <t>صنع منتجات كيم...</t>
   </si>
   <si>
     <t>صنع الأثاث</t>
   </si>
   <si>
-    <t>المنتجات المعدنية            أنشطة المعالجة وخدمات إدارة النفايات الأخرى            سبك المعادن            صنع منتجات المعادن اللافلزية غير المصنفة في موضع أخر</t>
-  </si>
-  <si>
-    <t>تجهيز وحفظ الفاكهة والخضر</t>
-  </si>
-  <si>
-    <t>صُنع المواد الكيميائية الأساسية ، صُنع الأسمدة والمركّبات الآزوتية واللدائن والمطاط التركيبي في أشكال أوّلية</t>
-  </si>
-  <si>
-    <t>صنع المحركات والمولدات والمحولات الكهربائية وأجهزة توزيع الكهرباء والتحكم فيها</t>
-  </si>
-  <si>
-    <t>صناعة المنتجات المعدنية الإنشائية والصهاريج والخزانات ومولدات البخار</t>
-  </si>
-  <si>
-    <t>صُنع منتجات أخرى غير مصنَّفة في موضع آخر</t>
-  </si>
-  <si>
-    <t>منتجات بلاستيكية (لدائن)            صنع المنتجات اللدائنية            صنع المنتجات النفطية المكررة            صُنع المواد الكيميائية الأساسية ، صُنع الأسمدة والمركّبات الآزوتية واللدائن والمطاط التركيبي في أشكال أوّلية            صنع منتجات المطاط            صنع المنتجات اللدائنية</t>
-  </si>
-  <si>
-    <t>صناعة المعدات الكهربائية الأخرى</t>
-  </si>
-  <si>
-    <t>صنع منتجات المعادن المشكلة الأخرى, أنشطة خدمات تشكيل المعادن</t>
-  </si>
-  <si>
-    <t>الأثاث            صُنع المواد الكيميائية الأساسية ، صُنع الأسمدة والمركّبات الآزوتية واللدائن والمطاط التركيبي في أشكال أوّلية            صنع الأثاث</t>
-  </si>
-  <si>
-    <t>المواد الغذائية            صُنع منتجات الأغذية الأخرى            تجهيز وحفظ اللحوم            تجهيز وحفظ السمك والقشريات والرخويات            تجهيز وحفظ الفاكهة والخضر            صُنع الزيوت والدهون النباتية والحيوانية</t>
-  </si>
-  <si>
-    <t>صنع المنتجات اللدائنية</t>
-  </si>
-  <si>
-    <t>صنع الآلات المتخصصة الغرض</t>
-  </si>
-  <si>
-    <t>صُنع منتجات الأغذية الأخرى</t>
-  </si>
-  <si>
-    <t>البلاستيك            مواد بناء            صنع المنتجات اللدائنية</t>
-  </si>
-  <si>
-    <t>صنع منتجات المعادن اللافلزية غير المصنفة في موضع أخر</t>
+    <t>تجهيز وحفظ الف...</t>
+  </si>
+  <si>
+    <t>صُنع المواد ال...</t>
+  </si>
+  <si>
+    <t>صنع المحركات و...</t>
+  </si>
+  <si>
+    <t>صناعة المنتجات...</t>
+  </si>
+  <si>
+    <t>صُنع منتجات أخ...</t>
+  </si>
+  <si>
+    <t>منتجات بلاستيك...</t>
+  </si>
+  <si>
+    <t>صناعة المعدات ...</t>
+  </si>
+  <si>
+    <t>الأثاث
+ ...</t>
+  </si>
+  <si>
+    <t>المواد الغذائي...</t>
+  </si>
+  <si>
+    <t>صنع الآلات الم...</t>
+  </si>
+  <si>
+    <t>صُنع منتجات ال...</t>
+  </si>
+  <si>
+    <t>البلاستيك
+...</t>
   </si>
   <si>
     <t>+966138196321</t>
@@ -1430,178 +1307,172 @@
     <t>+966135824960</t>
   </si>
   <si>
-    <t>alimbrator@hotmail.com</t>
-  </si>
-  <si>
-    <t>s-dammam@osais.com</t>
-  </si>
-  <si>
-    <t>ahmadaldubaisi@aqh.com.sa</t>
-  </si>
-  <si>
-    <t>kareamona2@yahoo.com</t>
-  </si>
-  <si>
-    <t>abdullah@rvf.sa</t>
-  </si>
-  <si>
-    <t>safeerluxurypack@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@masaggild.com</t>
-  </si>
-  <si>
-    <t>general@bilad-catalyst.com</t>
-  </si>
-  <si>
-    <t>ali@tanatel.com.sa</t>
-  </si>
-  <si>
-    <t>abdullah.almasoud@tadweeer.com</t>
-  </si>
-  <si>
-    <t>info@retab.com.sa</t>
-  </si>
-  <si>
-    <t>aziz@digas.com.sa</t>
-  </si>
-  <si>
-    <t>adam@tpf.com.sa</t>
-  </si>
-  <si>
-    <t>kalshaibany@saudimatelec.com</t>
-  </si>
-  <si>
-    <t>amer@rico-sa.com</t>
-  </si>
-  <si>
-    <t>akbajammal@arcoma.com</t>
-  </si>
-  <si>
-    <t>adam.alzayani@tara.sa</t>
-  </si>
-  <si>
-    <t>sultan@kingdompaints.sa</t>
-  </si>
-  <si>
-    <t>info@apc-saudi.com</t>
-  </si>
-  <si>
-    <t>fahad@raqtan.com</t>
-  </si>
-  <si>
-    <t>fansari@usg.com.sa</t>
-  </si>
-  <si>
-    <t>ayman.alsharief@alrajhindustrial.com</t>
-  </si>
-  <si>
-    <t>khaled.bamasek@pafl.com.sa</t>
-  </si>
-  <si>
-    <t>r.nawaz@rowadplastic.com</t>
-  </si>
-  <si>
-    <t>gm_office@alqimma.com</t>
-  </si>
-  <si>
-    <t>fpur-coo@aani-dani.com</t>
-  </si>
-  <si>
-    <t>sales@ayed-sa.com</t>
-  </si>
-  <si>
-    <t>a.alshuaibi@spf.com.sa</t>
-  </si>
-  <si>
-    <t>malotaibi@saudicement.com.sa</t>
-  </si>
-  <si>
-    <t>7699 خميس مشيط 62461-4973 44</t>
-  </si>
-  <si>
-    <t>4139 الدمام 32272-8714 5</t>
-  </si>
-  <si>
-    <t>الخبر حي البستان برج الكروان</t>
-  </si>
-  <si>
-    <t>جده المنطقه الصناعية المرحله الخامسه</t>
-  </si>
-  <si>
-    <t>الرياض المنطقه الصناعيه الثانيه 4687</t>
-  </si>
-  <si>
-    <t>جده حي مشرفه شارع العروبه أملاك شركة دار القبله</t>
-  </si>
-  <si>
-    <t>جده المنطقه الصناعيه المرحله الرابعه ملك ادارة المدينه الصناعيه</t>
-  </si>
-  <si>
-    <t>الجبيل / مدينه الجبيل الصناعيه الثانويه ـ طريق198</t>
-  </si>
-  <si>
-    <t>الرياض طريق الملك عبدالله</t>
-  </si>
-  <si>
-    <t>الرياض حي الملقا شارع وادي هجر</t>
-  </si>
-  <si>
-    <t>شقراء / الحماده</t>
-  </si>
-  <si>
-    <t>المدينه المنورة آبار علي المنطقه الصناعيه</t>
-  </si>
-  <si>
-    <t>المدينة المنورة/ المنطقة الصناعيــــة</t>
-  </si>
-  <si>
-    <t>الخرج صناعية الرفايع مخرج 7 طريق الرياض الخرج السريع</t>
-  </si>
-  <si>
-    <t>الرياض حي الرحمانية شارع التخصصي</t>
-  </si>
-  <si>
-    <t>جده المنطقه الصناعيــة</t>
-  </si>
-  <si>
-    <t>الدمام حي المدينة الصناعية الأولى</t>
-  </si>
-  <si>
-    <t>خميس مشيط - العماره - المدينة الصـناعية - مسـتأجر من وزارة الصـناعة</t>
-  </si>
-  <si>
-    <t>الرياض / طريق الخرج المدينه الصناعيه الثـانيه - المرحله الثالثه</t>
-  </si>
-  <si>
-    <t>الدمام المدينة الصناعية الثانية شارع 77 تقاطع 47-446</t>
-  </si>
-  <si>
-    <t>الدمام / منطقة الخدمات المساندة - ميناء الملك عبدالعزيز</t>
-  </si>
-  <si>
-    <t>الرياض / المنطقه الصــناعيه شارع الأمير ســلمان</t>
-  </si>
-  <si>
-    <t>جده / المنطقه الصناعيه المرحله الخامسه قطعه (3) 16 اف</t>
-  </si>
-  <si>
-    <t>الدمام طريق بقيق</t>
-  </si>
-  <si>
-    <t>3507 جدة 22416-7073 2</t>
-  </si>
-  <si>
-    <t>الرياض حي الخالدية طريق الامير محمد بن عبدالرحمن</t>
-  </si>
-  <si>
-    <t>الرياض / الصـناعيه الثــانيه</t>
-  </si>
-  <si>
-    <t>الاحساء / العيون / المدينه الصناعيه</t>
-  </si>
-  <si>
-    <t>الدمام 3964 الملك سعود-العمارة وحدةرقم1 الدمام32415 7102</t>
+    <t>alimbrator@hot...</t>
+  </si>
+  <si>
+    <t>s-dammam@osais...</t>
+  </si>
+  <si>
+    <t>ahmadaldubaisi...</t>
+  </si>
+  <si>
+    <t>kareamona2@yah...</t>
+  </si>
+  <si>
+    <t>abdullah@rvf.s...</t>
+  </si>
+  <si>
+    <t>safeerluxurypa...</t>
+  </si>
+  <si>
+    <t>info@masaggild...</t>
+  </si>
+  <si>
+    <t>general@bilad-...</t>
+  </si>
+  <si>
+    <t>ali@tanatel.co...</t>
+  </si>
+  <si>
+    <t>abdullah.almas...</t>
+  </si>
+  <si>
+    <t>info@retab.com...</t>
+  </si>
+  <si>
+    <t>aziz@digas.com...</t>
+  </si>
+  <si>
+    <t>adam@tpf.com.s...</t>
+  </si>
+  <si>
+    <t>kalshaibany@sa...</t>
+  </si>
+  <si>
+    <t>amer@rico-sa.c...</t>
+  </si>
+  <si>
+    <t>akbajammal@arc...</t>
+  </si>
+  <si>
+    <t>adam.alzayani@...</t>
+  </si>
+  <si>
+    <t>sultan@kingdom...</t>
+  </si>
+  <si>
+    <t>info@apc-saudi...</t>
+  </si>
+  <si>
+    <t>fahad@raqtan.c...</t>
+  </si>
+  <si>
+    <t>fansari@usg.co...</t>
+  </si>
+  <si>
+    <t>ayman.alsharie...</t>
+  </si>
+  <si>
+    <t>khaled.bamasek...</t>
+  </si>
+  <si>
+    <t>r.nawaz@rowadp...</t>
+  </si>
+  <si>
+    <t>gm_office@alqi...</t>
+  </si>
+  <si>
+    <t>fpur-coo@aani-...</t>
+  </si>
+  <si>
+    <t>sales@ayed-sa....</t>
+  </si>
+  <si>
+    <t>a.alshuaibi@sp...</t>
+  </si>
+  <si>
+    <t>malotaibi@saud...</t>
+  </si>
+  <si>
+    <t>7699 خميس مشيط...</t>
+  </si>
+  <si>
+    <t>4139 الدمام 32...</t>
+  </si>
+  <si>
+    <t>الخبر حي البست...</t>
+  </si>
+  <si>
+    <t>جده المنطقه ال...</t>
+  </si>
+  <si>
+    <t>الرياض المنطقه...</t>
+  </si>
+  <si>
+    <t>جده حي مشرفه ش...</t>
+  </si>
+  <si>
+    <t>الجبيل / مدينه...</t>
+  </si>
+  <si>
+    <t>الرياض طريق ال...</t>
+  </si>
+  <si>
+    <t>الرياض حي المل...</t>
+  </si>
+  <si>
+    <t>شقراء / الحماد...</t>
+  </si>
+  <si>
+    <t>المدينه المنور...</t>
+  </si>
+  <si>
+    <t>المدينة المنور...</t>
+  </si>
+  <si>
+    <t>الخرج صناعية ا...</t>
+  </si>
+  <si>
+    <t>الرياض حي الرح...</t>
+  </si>
+  <si>
+    <t>الدمام حي المد...</t>
+  </si>
+  <si>
+    <t>خميس مشيط - ال...</t>
+  </si>
+  <si>
+    <t>الرياض / طريق ...</t>
+  </si>
+  <si>
+    <t>الدمام المدينة...</t>
+  </si>
+  <si>
+    <t>الدمام / منطقة...</t>
+  </si>
+  <si>
+    <t>الرياض / المنط...</t>
+  </si>
+  <si>
+    <t>جده / المنطقه ...</t>
+  </si>
+  <si>
+    <t>الدمام طريق بق...</t>
+  </si>
+  <si>
+    <t>3507 جدة 22416...</t>
+  </si>
+  <si>
+    <t>الرياض حي الخا...</t>
+  </si>
+  <si>
+    <t>الرياض / الصـن...</t>
+  </si>
+  <si>
+    <t>الاحساء / العي...</t>
+  </si>
+  <si>
+    <t>الدمام 3964 ال...</t>
   </si>
   <si>
     <t>السعودية</t>
@@ -1613,109 +1484,29 @@
     <t>20</t>
   </si>
   <si>
-    <t>0  ريال سعودي</t>
-  </si>
-  <si>
-    <t>100  ريال سعودي</t>
-  </si>
-  <si>
-    <t>5 M  ريال سعودي</t>
-  </si>
-  <si>
-    <t>1.5 M  ريال سعودي</t>
+    <t>0
+ريال سعودي</t>
+  </si>
+  <si>
+    <t>100
+ريال سعودي...</t>
+  </si>
+  <si>
+    <t>5 M
+ريال سعودي...</t>
+  </si>
+  <si>
+    <t>1.5 M
+ريال سعو...</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  البلاستيك. وأحواض الحمامات وصهاريج التنظيف والأدوا..  رمز المنتج: 392290 تفاصيل  بوليمرات الإيثيلين أكياس وأكياس (بما في ذلك الأقما..  رمز المنتج: 392321 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  الأسمنت الليفي السليلوز. أصناف أو ما يماثلها ، عدا..  رمز المنتج: 681189 تفاصيل  الحديد الزهر؛ والأنابيب والملامح المجوفة  رمز المنتج: 730300 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  شبك مناخل معدني  رمز المنتج: 731442 شبك المناخل المعدني يستخدم في عمليات نخل المواد السائبة كالا...تفاصيل  Pulleys And Flywheels, Including Pulley Blocks  رمز المنتج: 848350 تفاصيل  Pulleys And Flywheels, Including Pulley Blocks  رمز المنتج: 848350 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Bituminous Mixtures Based On Natural Asphalt, On N..  رمز المنتج: 271500 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Carpets And Other Textile Floor Coverings; Woven, ..  رمز المنتج: 570232 تفاصيل  Carpets And Other Textile Floor Coverings; Woven, ..  رمز المنتج: 570242 تفاصيل  Carpets And Other Textile Floor Coverings; N.E.C. ..  رمز المنتج: 570500 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  الورق والورق المقوى. طي الكراتين والصناديق والأغلف..  رمز المنتج: 481920 تفاصيل  الورق والورق المقوى. طي الكراتين والصناديق والأغلف..  رمز المنتج: 230400 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Diamonds; Non-Industrial, (Other Than Unworked Or ..  رمز المنتج: 710239 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  المحفزات ، المدعومة ؛ بادئ التفاعل ، ومسرعات التفا..  رمز المنتج: 381519 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  غرف النوم  رمز المنتج: 63049403 غرفة نوم مكونة من 7 قطع وهم السرير والتسريحة والشفنيرة و2كمد...تفاصيل  اطقم الكنب  رمز المنتج: 94039403 اطقم كنب لغرف الجلوس يتكون من 4 قطع عبارة عن قطعة ثلاثية وقط...تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Copper; Waste And Scrap  رمز المنتج: 740400 تفاصيل  Ferrous Waste And Scrap; Of Stainless Steel  رمز المنتج: 720421 تفاصيل  Aluminium; Waste And Scrap  رمز المنتج: 760200 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Fruit, Edible; Dates, Fresh Or Dried  رمز المنتج: 080410 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Oxygen  رمز المنتج: 280440 تفاصيل  Nitrogen  رمز المنتج: 280430 تفاصيل  هيدروكربونات لا حلقية غير مشبعة ، غير مذكورة في مك..  رمز المنتج: 290129 تفاصيل  Gases, Rare; Other Than Argon  رمز المنتج: 280429 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Paper And Paperboard; Sacks And Bags, Including Co..  رمز المنتج: 481940 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Electrical Transformers; Liquid Dielectric, Having..  رمز المنتج: 850421 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Iron Or Steel; Structures And Parts Thereof, Doors..  رمز المنتج: 730830 تفاصيل  Safes; Armoured Or Reinforced, Strong-Boxes, Doors..  رمز المنتج: 830300 تفاصيل  Aluminium; Structures (Excluding Prefabricated Bui..  رمز المنتج: 761090 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Iron Or Steel; Structures And Parts Thereof, N.E.C..  رمز المنتج: 731824 تفاصيل  Jewellery; Of Precious Metal (Excluding Silver) Wh..  رمز المنتج: 711319 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Brushes; Toothbrushes  رمز المنتج: 960321 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  بريق. اللمعان السائل والمستحضرات المماثلة  رمز المنتج: 320730 تفاصيل  ماستيك. حشوات الرسامين  رمز المنتج: 321410 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  راتنجات أمينية اليوريا وراتنجات الثيوريا ، في أشكا..  رمز المنتج: 390910 تفاصيل  راتنجات أمينية اليوريا وراتنجات الثيوريا ، في أشكا..  رمز المنتج: 190590 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Furniture; Metal, For Office Use  رمز المنتج: 940310 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Iron Or Steel; Structures And Parts Thereof, N.E.C..  رمز المنتج: 730890 تفاصيل  Iron Or Steel; Articles N.E.C. In Heading 7326  رمز المنتج: 732690 تفاصيل  Zinc; Articles N.E.C. In Chapter 79  رمز المنتج: 790700 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Clothing Accessories; Other Than Those Of Heading ..  رمز المنتج: 621710 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Food Preparations; Pasta, Containing Eggs, Uncooke..  رمز المنتج: 190211 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Plastics; Plates, Sheets, Film, Foil And Strip (No..  رمز المنتج: 392010 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  مكائن انتاج البلوك الاسمنتي متنوعة  رمز المنتج: 84571084743900 مكائن متحركة لـ انتاج البلوك الاسمنتي قابلة لتشغيل عدة انواع...تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Cocoa; Powder, Containing Added Sugar Or Other Swe..  رمز المنتج: 180610 تفاصيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Vinyl Chloride, Other Halogenated Olefin Polymers;..  رمز المنتج: 390421 تفاصيل  Plastics; Tubes, Pipes And Hoses Thereof, Rigid, O..  رمز المنتج: 391721 تفاصيل  Plastics; Tubes, Pipes And Hoses Thereof, Flexible..  رمز المنتج: 391731 تفاصيل  Iron Or Steel; Articles N.E.C. In Heading 7326  رمز المنتج: 732690 تفاصيل  Plastics; Spools, Cops, Bobbins And Similar Suppor..  رمز المنتج: 392340 تفاصيل  Plastics; Tubes, Pipes And Hoses Thereof, Flexible..  رمز المنتج: 391731 تفاصيل   1   2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Fabrics, Woven; Of Jute Or Of Other Textile Bast F..  رمز المنتج: 531090 تفاصيل  Fabrics, Woven; Of Jute Or Of Other Textile Bast F..  رمز المنتج: 531090 تفاصيل  Fabrics, Woven; Of Jute Or Of Other Textile Bast F..  رمز المنتج: 531090 تفاصيل  Fabrics, Woven; Of Jute Or Of Other Textile Bast F..  رمز المنتج: 531090 تفاصيل  Fabrics, Woven; Of Jute Or Of Other Textile Bast F..  رمز المنتج: 531090 تفاصيل  Fabrics, Woven; Of Jute Or Of Other Textile Bast F..  رمز المنتج: 531090 تفاصيل   1   2   3    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  المنتجات الرئيسية التي يجري تقديمها  Cement; Portland, Other Than White, Whether Or Not..  رمز المنتج: 252329 تفاصيل</t>
-  </si>
-  <si>
-    <t>العملاء الرئيسيين  مصنع سليمان النملة  مصنع علي المسرع القحطاني  مصنع حدائق بابل للتجارة  مصنع المناصير  مصنع سلموكات البلوك  المشاريع الرئيسية المنفذة  زخرفة توسعة الحرم المكي  التعاقد مع شركة نيولاين</t>
+    <t xml:space="preserve">  المنتجات الر...</t>
+  </si>
+  <si>
+    <t>العملاء الرئيس...</t>
   </si>
   <si>
     <t>City</t>
@@ -1727,85 +1518,85 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>مصنع السخان الخليجي</t>
-  </si>
-  <si>
-    <t>شركة مشاريع الدفاع للصناعات العسكرية</t>
-  </si>
-  <si>
-    <t>فرع الشركة العربية للتشييد والبناء</t>
-  </si>
-  <si>
-    <t>مصنع هيت للبلاستيك</t>
-  </si>
-  <si>
-    <t>مصنع تقنية البناء للبلوك والمنتجات الاسمنتيه</t>
-  </si>
-  <si>
-    <t>مصنع العلمان للبلاستك</t>
-  </si>
-  <si>
-    <t>شركة ينبع الصناعية لمنتجات التعبئة و التغليف المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع سعد عبدالله الحسنية للرخام والمنتجات الأسمنتية</t>
-  </si>
-  <si>
-    <t>شركة دورما العربية لصناعة الأبواب الأتوماتيكية المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع عبدالله محمد الحمد الغريب للخرسانة الجاهزة</t>
-  </si>
-  <si>
-    <t>الشركة الفنية لأثاث الألمنيوم والزخرفة ( الوفاء )</t>
-  </si>
-  <si>
-    <t>مصنع لمار للصناعات الخشبية</t>
-  </si>
-  <si>
-    <t>مصنع شركة الفلك المتحدة لاعمال الديكور</t>
-  </si>
-  <si>
-    <t>مصنع الرميزان للأسطح الصناعية المقاومة</t>
-  </si>
-  <si>
-    <t>مصنع شركة أحمد سالم بقشان وأولاده للأشكال المعدنية وقطع الغيار</t>
-  </si>
-  <si>
-    <t>شركة ريادة الخدمات للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع الروف للصناعة</t>
-  </si>
-  <si>
-    <t>شركة مقنا للتنمية الصناعية</t>
-  </si>
-  <si>
-    <t>مصنع حاتم عاتق الديحاني للبلك والخرسانة الجاهزة</t>
-  </si>
-  <si>
-    <t>مصنع شركة عطية للحديد /الفرع الثاني</t>
-  </si>
-  <si>
-    <t>مصنع صخور الجوده للحجر والرخام</t>
-  </si>
-  <si>
-    <t>المصنع السعودي لأبواب المصاعد</t>
-  </si>
-  <si>
-    <t>مصنع شركة اوهاج للمنتجات الاسمنتية</t>
-  </si>
-  <si>
-    <t>شركة السيربو السعوديه</t>
-  </si>
-  <si>
-    <t>مصنع بلاستيك الرياض للانابيب</t>
-  </si>
-  <si>
-    <t>مصنع صخور الجزيرة للرخام والجرانيت والحجر</t>
-  </si>
-  <si>
-    <t>مصنع شروق الخرج للصناعة</t>
+    <t>مصنع السخان ال...</t>
+  </si>
+  <si>
+    <t>شركة مشاريع ال...</t>
+  </si>
+  <si>
+    <t>فرع الشركة الع...</t>
+  </si>
+  <si>
+    <t>مصنع هيت للبلا...</t>
+  </si>
+  <si>
+    <t>مصنع تقنية الب...</t>
+  </si>
+  <si>
+    <t>مصنع العلمان ل...</t>
+  </si>
+  <si>
+    <t>شركة ينبع الصن...</t>
+  </si>
+  <si>
+    <t>مصنع سعد عبدال...</t>
+  </si>
+  <si>
+    <t>شركة دورما الع...</t>
+  </si>
+  <si>
+    <t>مصنع عبدالله م...</t>
+  </si>
+  <si>
+    <t>الشركة الفنية ...</t>
+  </si>
+  <si>
+    <t>مصنع لمار للصن...</t>
+  </si>
+  <si>
+    <t>مصنع شركة الفل...</t>
+  </si>
+  <si>
+    <t>مصنع الرميزان ...</t>
+  </si>
+  <si>
+    <t>مصنع شركة أحمد...</t>
+  </si>
+  <si>
+    <t>شركة ريادة الخ...</t>
+  </si>
+  <si>
+    <t>مصنع الروف للص...</t>
+  </si>
+  <si>
+    <t>شركة مقنا للتن...</t>
+  </si>
+  <si>
+    <t>مصنع حاتم عاتق...</t>
+  </si>
+  <si>
+    <t>مصنع شركة عطية...</t>
+  </si>
+  <si>
+    <t>مصنع صخور الجو...</t>
+  </si>
+  <si>
+    <t>المصنع السعودي...</t>
+  </si>
+  <si>
+    <t>مصنع شركة اوها...</t>
+  </si>
+  <si>
+    <t>شركة السيربو ا...</t>
+  </si>
+  <si>
+    <t>مصنع بلاستيك ا...</t>
+  </si>
+  <si>
+    <t>مصنع صخور الجز...</t>
+  </si>
+  <si>
+    <t>مصنع شروق الخر...</t>
   </si>
   <si>
     <t>العيون</t>
@@ -1853,10 +1644,10 @@
     <t>حفر الباطن</t>
   </si>
   <si>
-    <t>المنطقة الشرقية</t>
-  </si>
-  <si>
-    <t>منطقة الحدود الشمالية</t>
+    <t>المنطقة الشرقي...</t>
+  </si>
+  <si>
+    <t>منطقة الحدود ا...</t>
   </si>
   <si>
     <t>+966504447405</t>
@@ -1970,394 +1761,385 @@
     <t>+966115473344</t>
   </si>
   <si>
-    <t>genral911@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@demi.com.sa</t>
-  </si>
-  <si>
-    <t>salehhr@altawi.com.sa</t>
-  </si>
-  <si>
-    <t>heetexpali@yahoo.com</t>
-  </si>
-  <si>
-    <t>ahmedmezo2001@yahoo.com</t>
-  </si>
-  <si>
-    <t>oaalswinh@hotmail.com</t>
-  </si>
-  <si>
-    <t>a@yanbuplastic.com</t>
-  </si>
-  <si>
-    <t>e-mhasniya@hotmail.com</t>
-  </si>
-  <si>
-    <t>faisal.batook@dormakaba.com</t>
-  </si>
-  <si>
-    <t>z2z.z2@msn.com</t>
-  </si>
-  <si>
-    <t>almahmoud@bjc.com.sa</t>
-  </si>
-  <si>
-    <t>naif.al-subaei@alfanar.com.com</t>
-  </si>
-  <si>
-    <t>abdullahmushabab@alsaad.com.sa</t>
-  </si>
-  <si>
-    <t>khalid@alromaizangroup.com</t>
-  </si>
-  <si>
-    <t>gm_amm@bougshan.com</t>
-  </si>
-  <si>
-    <t>amgad77ali@hotmail.com</t>
-  </si>
-  <si>
-    <t>nasrhazza1@yahoo.com</t>
-  </si>
-  <si>
-    <t>khalid2551969@hotmail.com</t>
-  </si>
-  <si>
-    <t>alali32000@yahoo.com</t>
-  </si>
-  <si>
-    <t>v_ii_p@hotmail.com</t>
-  </si>
-  <si>
-    <t>saudiserpo@gmail.com</t>
-  </si>
-  <si>
-    <t>hrpf@alhokair.com</t>
-  </si>
-  <si>
-    <t>saeed999911@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmed_dan@hotmail.com</t>
-  </si>
-  <si>
-    <t>صنع الاجهزة الكهربائية المنزلية</t>
-  </si>
-  <si>
-    <t>صنع الملبوسات باستثناء الملبوسات الفرائية</t>
-  </si>
-  <si>
-    <t>صنع اصناف من الخرسانة والاسمنت والجص</t>
-  </si>
-  <si>
-    <t>صنع الالات الاخرى متعددة الاغراض</t>
-  </si>
-  <si>
-    <t>صنع المنتجات المعدنية الانشائية</t>
-  </si>
-  <si>
-    <t>قطع وتشكيل وصقل الاحجار</t>
-  </si>
-  <si>
-    <t>صنع الحديد القاعدي والصلب</t>
-  </si>
-  <si>
-    <t>صنع المحركات والمولدات والمحولات الكهربائية واجهزة توزيع الكهرباء والتحكم فيها</t>
-  </si>
-  <si>
-    <t>صنع معدات الرفع والمناولة</t>
-  </si>
-  <si>
-    <t>صنع الدهانات والورنيشات والطلاءات المماثلة، واحبار الطباعة والمعاجين المستكية</t>
-  </si>
-  <si>
-    <t>صنع هياكل (اعمال تجهيز العربات) للمركبات ذات المحركات؛ صنع المركبات المقطورة والمركبات نصف المقطورة</t>
-  </si>
-  <si>
-    <t>اكسسوارات ادوات صحية بلاستيكية</t>
-  </si>
-  <si>
-    <t>الواح بولي ايثيلين عالي الكثافة لحماية الاسطح الداخلية</t>
-  </si>
-  <si>
-    <t>خرسانة جاهزة منتجات خرسانية مسبقة الصنع</t>
-  </si>
-  <si>
-    <t>رولات بلاستيكية (للمغاسل)</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي بردورات اسمنتية</t>
-  </si>
-  <si>
-    <t>انابيب وليات بلاستيكية للتمديدات الكهربائية</t>
-  </si>
-  <si>
-    <t>تشكيل معادن مداخن ستانلس ستيل ابواب غرف تبريد وتجميد</t>
-  </si>
-  <si>
-    <t>الواح من بوليمرات الايثيلين الواح من بوليمرات البروبلين الواح من بوليمرات السترين</t>
-  </si>
-  <si>
-    <t>بلاط ملون - انترلوك</t>
-  </si>
-  <si>
-    <t>ابواب منزلقة ودوارة ومتأرجحة ومقوسة</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي خرسانة جاهزة</t>
-  </si>
-  <si>
-    <t>ابواب ونوافذ ودرابزينات وسلالم وواجهات المنيوم مع زجاج.</t>
-  </si>
-  <si>
-    <t>ابواب خشبية مكتبات طاولات خشبية ومعدنية مكتبية</t>
-  </si>
-  <si>
-    <t>ابواب خشبية سلالم خشبية ديكورات خشبية واجهات زجاجية للمباني شبابيك ونوافذ مزخرفة درج (سلالم) حديدية شبابيك المنيوم</t>
-  </si>
-  <si>
-    <t>احواض ومجالي من الرخام الصناعي المقاوم</t>
-  </si>
-  <si>
-    <t>بروفيلات حديدية مسحوبة على البارد مبسطات ومسطحات وشبك حديدية</t>
-  </si>
-  <si>
-    <t>منصات معدنية وصلات معدنية هياكل ومنصات حديدية</t>
-  </si>
-  <si>
-    <t>مرابط مفاتيح كهربائية بلاستيكية مواسير معدنية ووصلاتها للتمديدات الكهربائية</t>
-  </si>
-  <si>
-    <t>الواح خشب بلاستيكي متجانسة من مادة بودرة الخشب وحبيبات البولي اثيلين عالي الكثافة</t>
-  </si>
-  <si>
-    <t>خرسانة مسلحة بلوك اسمنتي</t>
-  </si>
-  <si>
-    <t>ابواب معدنية واطرها متنوعة ابواب معدنية واطاراتها مقاومة للحريق دواليب وارفف معدنية سلالم ودرابزينات واسوار اكسسوارات ابواب واجهات مباني من الالمنيوم والاستانلس ستيل</t>
-  </si>
-  <si>
-    <t>تشكيل وثني وقص القضبان شبك ارضيات</t>
+    <t>genral911@hotm...</t>
+  </si>
+  <si>
+    <t>info@demi.com....</t>
+  </si>
+  <si>
+    <t>salehhr@altawi...</t>
+  </si>
+  <si>
+    <t>heetexpali@yah...</t>
+  </si>
+  <si>
+    <t>ahmedmezo2001@...</t>
+  </si>
+  <si>
+    <t>oaalswinh@hotm...</t>
+  </si>
+  <si>
+    <t>a@yanbuplastic...</t>
+  </si>
+  <si>
+    <t>e-mhasniya@hot...</t>
+  </si>
+  <si>
+    <t>faisal.batook@...</t>
+  </si>
+  <si>
+    <t>z2z.z2@msn.com...</t>
+  </si>
+  <si>
+    <t>almahmoud@bjc....</t>
+  </si>
+  <si>
+    <t>naif.al-subaei...</t>
+  </si>
+  <si>
+    <t>abdullahmushab...</t>
+  </si>
+  <si>
+    <t>khalid@alromai...</t>
+  </si>
+  <si>
+    <t>gm_amm@bougsha...</t>
+  </si>
+  <si>
+    <t>amgad77ali@hot...</t>
+  </si>
+  <si>
+    <t>nasrhazza1@yah...</t>
+  </si>
+  <si>
+    <t>khalid2551969@...</t>
+  </si>
+  <si>
+    <t>alali32000@yah...</t>
+  </si>
+  <si>
+    <t>v_ii_p@hotmail...</t>
+  </si>
+  <si>
+    <t>saudiserpo@gma...</t>
+  </si>
+  <si>
+    <t>hrpf@alhokair....</t>
+  </si>
+  <si>
+    <t>saeed999911@gm...</t>
+  </si>
+  <si>
+    <t>ahmed_dan@hotm...</t>
+  </si>
+  <si>
+    <t>صنع الاجهزة ال...</t>
+  </si>
+  <si>
+    <t>صنع الملبوسات ...</t>
+  </si>
+  <si>
+    <t>صنع اصناف من ا...</t>
+  </si>
+  <si>
+    <t>صنع الالات الا...</t>
+  </si>
+  <si>
+    <t>قطع وتشكيل وصق...</t>
+  </si>
+  <si>
+    <t>صنع الحديد الق...</t>
+  </si>
+  <si>
+    <t>صنع معدات الرف...</t>
+  </si>
+  <si>
+    <t>صنع الدهانات و...</t>
+  </si>
+  <si>
+    <t>صنع هياكل (اعم...</t>
+  </si>
+  <si>
+    <t>اكسسوارات ادوا...</t>
+  </si>
+  <si>
+    <t>الواح بولي ايث...</t>
+  </si>
+  <si>
+    <t>خرسانة جاهزة م...</t>
+  </si>
+  <si>
+    <t>رولات بلاستيكي...</t>
+  </si>
+  <si>
+    <t>بلوك اسمنتي بر...</t>
+  </si>
+  <si>
+    <t>انابيب وليات ب...</t>
+  </si>
+  <si>
+    <t>تشكيل معادن مد...</t>
+  </si>
+  <si>
+    <t>الواح من بوليم...</t>
+  </si>
+  <si>
+    <t>بلاط ملون - ان...</t>
+  </si>
+  <si>
+    <t>ابواب منزلقة و...</t>
+  </si>
+  <si>
+    <t>بلوك اسمنتي خر...</t>
+  </si>
+  <si>
+    <t>ابواب ونوافذ و...</t>
+  </si>
+  <si>
+    <t>ابواب خشبية مك...</t>
+  </si>
+  <si>
+    <t>ابواب خشبية سل...</t>
+  </si>
+  <si>
+    <t>احواض ومجالي م...</t>
+  </si>
+  <si>
+    <t>بروفيلات حديدي...</t>
+  </si>
+  <si>
+    <t>منصات معدنية و...</t>
+  </si>
+  <si>
+    <t>مرابط مفاتيح ك...</t>
+  </si>
+  <si>
+    <t>الواح خشب بلاس...</t>
+  </si>
+  <si>
+    <t>خرسانة مسلحة ب...</t>
+  </si>
+  <si>
+    <t>ابواب معدنية و...</t>
+  </si>
+  <si>
+    <t>تشكيل وثني وقص...</t>
   </si>
   <si>
     <t>الواح جرانيت</t>
   </si>
   <si>
-    <t>ابواب طواريء صناديق تحكم</t>
+    <t>ابواب طواريء ص...</t>
   </si>
   <si>
     <t>بلوك اسمنتي</t>
   </si>
   <si>
-    <t>مونة جافة طبقة تلييس خفيفة</t>
-  </si>
-  <si>
-    <t>انابيب بلاستيكية حرارية انابيب بي في سي مقساة انابيب بلاستيكية (تحمل شاق). وصلات واكواع بلاستيكية</t>
-  </si>
-  <si>
-    <t>جرانيت (الواح وشرائح)</t>
+    <t>مونة جافة طبقة...</t>
+  </si>
+  <si>
+    <t>انابيب بلاستيك...</t>
+  </si>
+  <si>
+    <t>جرانيت (الواح ...</t>
   </si>
   <si>
     <t>صهاريج وتوانك</t>
   </si>
   <si>
-    <t>مصنع شركة الأعمدة البديلة</t>
-  </si>
-  <si>
-    <t>مصنع محمد عبده حكمي للمنتجات الأسمنتية</t>
-  </si>
-  <si>
-    <t>شركة مصنع بدائل التعبئة و التغليف للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع رأس التشييد للألمنيوم</t>
-  </si>
-  <si>
-    <t>فرع شركة مصنع اوبترنا العربية</t>
-  </si>
-  <si>
-    <t>مصنع الهرم الثلاثي للاعمال المعدنية</t>
-  </si>
-  <si>
-    <t>مصنع نجاء محمد الحربي للبلوك</t>
-  </si>
-  <si>
-    <t>مصنع الوان التقدم لكيماويات البناء</t>
-  </si>
-  <si>
-    <t>مصنع قمة دماس للألواح البي في سي</t>
-  </si>
-  <si>
-    <t>شركة السنسنة للأعمال الصناعية والإنشاءات المعدنية</t>
-  </si>
-  <si>
-    <t>مصنع طلال مطلق العصيمي للبلوك الاسمنتي المعزول</t>
-  </si>
-  <si>
-    <t>مصنع تصنيع اللدائن</t>
-  </si>
-  <si>
-    <t>شركة المظفر للصناعات الأسمنتية</t>
-  </si>
-  <si>
-    <t>مصنع حلول المطابخ والخزائن</t>
-  </si>
-  <si>
-    <t>شركة صناعات الخير للكيماويات غير العضوية</t>
-  </si>
-  <si>
-    <t>مصنع تاج الأريكة للأثاث المعدني</t>
-  </si>
-  <si>
-    <t>مصنع نوره صالح فرحان الخليل للبلاط والحجر الصناعي</t>
-  </si>
-  <si>
-    <t>مصنع المواش للبلوك</t>
-  </si>
-  <si>
-    <t>مصنع مازن حبيب المقبقب للمنجات الاسمنتية</t>
-  </si>
-  <si>
-    <t>مصنع احمد محمد نعيم علي عبدالله للمنتجات الاسمنتيه</t>
-  </si>
-  <si>
-    <t>مصنع الملابس والتجهيزات العسكرية</t>
-  </si>
-  <si>
-    <t>شركة مصنع البلاستيك السعودي</t>
-  </si>
-  <si>
-    <t>مصنع عبدالله علي عبدالعزيز المشيطي للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع منال الامال للمنتجات الاسمنتية</t>
-  </si>
-  <si>
-    <t>مصنع سعد محمد ال محمد للبلوك والمنتجات الاسمنتية</t>
-  </si>
-  <si>
-    <t>مصنع أسس للحديد</t>
-  </si>
-  <si>
-    <t>شركة الطيار للصناعات البلاستيكية والمطاطيه المحدوده</t>
-  </si>
-  <si>
-    <t>شركة مصنع عمير للأنابيب</t>
-  </si>
-  <si>
-    <t>فرع شركة جودة الصناعة</t>
-  </si>
-  <si>
-    <t>apac@apac.com.sa</t>
-  </si>
-  <si>
-    <t>aleem_08@hotmail.com</t>
-  </si>
-  <si>
-    <t>qtr050@hotmail.com</t>
-  </si>
-  <si>
-    <t>m_saqabi@yahoo.com</t>
-  </si>
-  <si>
-    <t>bander.abdullah@opterna.com</t>
-  </si>
-  <si>
-    <t>mohammed@tpmf.com.sa</t>
-  </si>
-  <si>
-    <t>turkyqq@hotmail.com</t>
-  </si>
-  <si>
-    <t>mrsalwan@hotmail.com</t>
-  </si>
-  <si>
-    <t>ialhumidan@hotmail.com</t>
-  </si>
-  <si>
-    <t>alosami_1@hotmail.com</t>
-  </si>
-  <si>
-    <t>dr.saleh@tassne3,com</t>
-  </si>
-  <si>
-    <t>a.m.m@mudhaffar.net</t>
-  </si>
-  <si>
-    <t>zina.decor@yahoo.com</t>
-  </si>
-  <si>
-    <t>mahdi.shelfah@inochem.sa</t>
-  </si>
-  <si>
-    <t>rakan2000@hotmail.com</t>
+    <t>مصنع شركة الأع...</t>
+  </si>
+  <si>
+    <t>مصنع محمد عبده...</t>
+  </si>
+  <si>
+    <t>شركة مصنع بدائ...</t>
+  </si>
+  <si>
+    <t>مصنع رأس التشي...</t>
+  </si>
+  <si>
+    <t>فرع شركة مصنع ...</t>
+  </si>
+  <si>
+    <t>مصنع الهرم الث...</t>
+  </si>
+  <si>
+    <t>مصنع نجاء محمد...</t>
+  </si>
+  <si>
+    <t>مصنع الوان الت...</t>
+  </si>
+  <si>
+    <t>مصنع قمة دماس ...</t>
+  </si>
+  <si>
+    <t>شركة السنسنة ل...</t>
+  </si>
+  <si>
+    <t>مصنع طلال مطلق...</t>
+  </si>
+  <si>
+    <t>مصنع تصنيع الل...</t>
+  </si>
+  <si>
+    <t>شركة المظفر لل...</t>
+  </si>
+  <si>
+    <t>مصنع حلول المط...</t>
+  </si>
+  <si>
+    <t>شركة صناعات ال...</t>
+  </si>
+  <si>
+    <t>مصنع تاج الأري...</t>
+  </si>
+  <si>
+    <t>مصنع نوره صالح...</t>
+  </si>
+  <si>
+    <t>مصنع المواش لل...</t>
+  </si>
+  <si>
+    <t>مصنع مازن حبيب...</t>
+  </si>
+  <si>
+    <t>مصنع احمد محمد...</t>
+  </si>
+  <si>
+    <t>مصنع الملابس و...</t>
+  </si>
+  <si>
+    <t>شركة مصنع البل...</t>
+  </si>
+  <si>
+    <t>مصنع منال الام...</t>
+  </si>
+  <si>
+    <t>مصنع سعد محمد ...</t>
+  </si>
+  <si>
+    <t>مصنع أسس للحدي...</t>
+  </si>
+  <si>
+    <t>شركة الطيار لل...</t>
+  </si>
+  <si>
+    <t>شركة مصنع عمير...</t>
+  </si>
+  <si>
+    <t>فرع شركة جودة ...</t>
+  </si>
+  <si>
+    <t>apac@apac.com....</t>
+  </si>
+  <si>
+    <t>aleem_08@hotma...</t>
+  </si>
+  <si>
+    <t>qtr050@hotmail...</t>
+  </si>
+  <si>
+    <t>m_saqabi@yahoo...</t>
+  </si>
+  <si>
+    <t>bander.abdulla...</t>
+  </si>
+  <si>
+    <t>mohammed@tpmf....</t>
+  </si>
+  <si>
+    <t>turkyqq@hotmai...</t>
+  </si>
+  <si>
+    <t>mrsalwan@hotma...</t>
+  </si>
+  <si>
+    <t>ialhumidan@hot...</t>
+  </si>
+  <si>
+    <t>alosami_1@hotm...</t>
+  </si>
+  <si>
+    <t>dr.saleh@tassn...</t>
+  </si>
+  <si>
+    <t>a.m.m@mudhaffa...</t>
+  </si>
+  <si>
+    <t>zina.decor@yah...</t>
+  </si>
+  <si>
+    <t>mahdi.shelfah@...</t>
+  </si>
+  <si>
+    <t>rakan2000@hotm...</t>
   </si>
   <si>
     <t>no@aemil.com</t>
   </si>
   <si>
-    <t>almawash.538@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t>emad@saudimarfix.com</t>
-  </si>
-  <si>
-    <t>h200150@hotmail.com</t>
-  </si>
-  <si>
-    <t>muaf@muaf.com.sa</t>
-  </si>
-  <si>
-    <t>bandar@spf-sa.com</t>
-  </si>
-  <si>
-    <t>a1001644168@hotmail.com</t>
-  </si>
-  <si>
-    <t>manalalamal@yahoo.com</t>
-  </si>
-  <si>
-    <t>emaralbeshry@yahoo.com</t>
-  </si>
-  <si>
-    <t>sardouk@ousus.com</t>
-  </si>
-  <si>
-    <t>saud@altayar.com.sa</t>
+    <t>almawash.538@H...</t>
+  </si>
+  <si>
+    <t>emad@saudimarf...</t>
+  </si>
+  <si>
+    <t>h200150@hotmai...</t>
+  </si>
+  <si>
+    <t>muaf@muaf.com....</t>
+  </si>
+  <si>
+    <t>bandar@spf-sa....</t>
+  </si>
+  <si>
+    <t>a1001644168@ho...</t>
+  </si>
+  <si>
+    <t>manalalamal@ya...</t>
+  </si>
+  <si>
+    <t>emaralbeshry@y...</t>
+  </si>
+  <si>
+    <t>sardouk@ousus....</t>
+  </si>
+  <si>
+    <t>saud@altayar.c...</t>
   </si>
   <si>
     <t>otf@omair.com</t>
   </si>
   <si>
-    <t>alaa@jawdah.sa</t>
-  </si>
-  <si>
-    <t>255, المقطاع 62921، السعودية</t>
+    <t>alaa@jawdah.sa...</t>
+  </si>
+  <si>
+    <t>255, المقطاع 6...</t>
   </si>
   <si>
     <t>منطقة جيزان</t>
   </si>
   <si>
-    <t>صناعية القرينة 25.090295, 46.264771</t>
-  </si>
-  <si>
-    <t>Unnamed Road المملكة العربية ا</t>
-  </si>
-  <si>
-    <t>7609، مدينة العيون، الهفوف وال</t>
-  </si>
-  <si>
-    <t>37261، السعودية</t>
-  </si>
-  <si>
-    <t>الرياض حي الشفاء</t>
+    <t>صناعية القرينة...</t>
+  </si>
+  <si>
+    <t>Unnamed Road ا...</t>
+  </si>
+  <si>
+    <t>7609، مدينة ال...</t>
+  </si>
+  <si>
+    <t>37261، السعودي...</t>
+  </si>
+  <si>
+    <t>الرياض حي الشف...</t>
   </si>
   <si>
     <t>منطقة الجوف</t>
   </si>
   <si>
-    <t>8508 شارع الامير سلطان بن عبدا</t>
+    <t>8508 شارع الام...</t>
   </si>
 </sst>
 </file>
@@ -2767,16 +2549,16 @@
         <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2793,16 +2575,16 @@
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
         <v>138</v>
       </c>
-      <c r="G3" t="s">
-        <v>145</v>
-      </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2819,22 +2601,22 @@
         <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2851,16 +2633,16 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2877,19 +2659,19 @@
         <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2906,19 +2688,19 @@
         <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2935,22 +2717,22 @@
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2967,22 +2749,22 @@
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J9" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2999,16 +2781,16 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J10" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3022,19 +2804,19 @@
         <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3048,25 +2830,25 @@
         <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3080,25 +2862,25 @@
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I13" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J13" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3112,25 +2894,25 @@
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J14" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3144,22 +2926,22 @@
         <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J15" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3176,16 +2958,16 @@
         <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3202,16 +2984,16 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3225,22 +3007,22 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3257,22 +3039,22 @@
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3286,25 +3068,25 @@
         <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3321,22 +3103,22 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3353,19 +3135,19 @@
         <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3382,19 +3164,19 @@
         <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
         <v>198</v>
-      </c>
-      <c r="J23" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3408,25 +3190,25 @@
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
         <v>131</v>
       </c>
-      <c r="F24" t="s">
-        <v>138</v>
-      </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3440,22 +3222,22 @@
         <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3469,22 +3251,22 @@
         <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3501,22 +3283,22 @@
         <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J27" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3530,19 +3312,19 @@
         <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3556,19 +3338,19 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
         <v>136</v>
       </c>
-      <c r="F29" t="s">
-        <v>143</v>
-      </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3582,25 +3364,25 @@
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I30" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3618,566 +3400,566 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="F2" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
         <v>243</v>
       </c>
-      <c r="B7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" t="s">
-        <v>280</v>
-      </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
         <v>244</v>
       </c>
-      <c r="B8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" t="s">
-        <v>281</v>
-      </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
         <v>245</v>
       </c>
-      <c r="C9" t="s">
-        <v>282</v>
-      </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="E9" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
         <v>246</v>
       </c>
-      <c r="B10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" t="s">
-        <v>283</v>
-      </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
         <v>247</v>
       </c>
-      <c r="B11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" t="s">
-        <v>284</v>
-      </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
         <v>248</v>
       </c>
-      <c r="B12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" t="s">
-        <v>285</v>
-      </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="E12" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="s">
         <v>249</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>272</v>
       </c>
-      <c r="C13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" t="s">
-        <v>309</v>
-      </c>
       <c r="E13" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="F13" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" t="s">
         <v>273</v>
       </c>
-      <c r="D14" t="s">
-        <v>310</v>
-      </c>
       <c r="E14" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="F14" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="E15" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="F17" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="E18" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="F18" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="F19" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="E20" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="F20" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="F21" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="E22" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="F22" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="E23" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="F23" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="D24" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="E24" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="F24" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="E25" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F25" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="E26" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="E27" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="F27" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="E28" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="F28" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D29" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="E29" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="F29" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="E30" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="F30" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4195,13 +3977,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -4213,992 +3995,992 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>435</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F2" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="H2" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I2" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J2" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K2" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L2" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="D3" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F3" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="H3" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I3" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J3" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K3" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L3" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="E4" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="F4" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="H4" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I4" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J4" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K4" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L4" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="F5" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="H5" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I5" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J5" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K5" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L5" t="s">
-        <v>539</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="C6" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="D6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" t="s">
         <v>461</v>
       </c>
-      <c r="E6" t="s">
-        <v>474</v>
-      </c>
-      <c r="F6" t="s">
-        <v>503</v>
-      </c>
       <c r="H6" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I6" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J6" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K6" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L6" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="E7" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="F7" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="H7" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I7" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J7" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K7" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L7" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="E8" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="H8" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I8" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J8" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K8" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L8" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="F9" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="H9" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I9" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J9" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K9" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L9" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="E10" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="F10" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="G10" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="H10" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="I10" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J10" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="K10" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="L10" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="D11" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="E11" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="F11" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="H11" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I11" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J11" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K11" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L11" t="s">
-        <v>545</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="D12" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="E12" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="F12" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="H12" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I12" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J12" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K12" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L12" t="s">
-        <v>546</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="E13" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="F13" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="H13" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I13" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J13" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K13" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L13" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="C14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E14" t="s">
         <v>440</v>
       </c>
-      <c r="E14" t="s">
-        <v>482</v>
-      </c>
       <c r="F14" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="H14" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I14" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J14" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K14" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L14" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="C15" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E15" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="F15" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="H15" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I15" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J15" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K15" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L15" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="B16" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="E16" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="F16" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="H16" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I16" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J16" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K16" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L16" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="E17" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" t="s">
+        <v>460</v>
+      </c>
+      <c r="H17" t="s">
         <v>485</v>
       </c>
-      <c r="F17" t="s">
-        <v>514</v>
-      </c>
-      <c r="H17" t="s">
-        <v>529</v>
-      </c>
       <c r="I17" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J17" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K17" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L17" t="s">
-        <v>551</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="E18" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="F18" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="H18" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I18" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J18" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K18" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L18" t="s">
-        <v>552</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="E19" t="s">
+        <v>445</v>
+      </c>
+      <c r="F19" t="s">
+        <v>472</v>
+      </c>
+      <c r="H19" t="s">
+        <v>485</v>
+      </c>
+      <c r="I19" t="s">
         <v>487</v>
       </c>
-      <c r="F19" t="s">
-        <v>516</v>
-      </c>
-      <c r="H19" t="s">
-        <v>529</v>
-      </c>
-      <c r="I19" t="s">
-        <v>531</v>
-      </c>
       <c r="J19" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K19" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L19" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="B20" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="C20" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="E20" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F20" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="H20" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I20" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J20" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K20" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L20" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="E21" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="F21" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="H21" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I21" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J21" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K21" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L21" t="s">
-        <v>555</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="B22" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="F22" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="H22" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I22" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J22" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K22" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L22" t="s">
-        <v>556</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="B23" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="C23" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="E23" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="F23" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="H23" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I23" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J23" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K23" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L23" t="s">
-        <v>557</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="E24" t="s">
+        <v>450</v>
+      </c>
+      <c r="F24" t="s">
+        <v>477</v>
+      </c>
+      <c r="H24" t="s">
+        <v>485</v>
+      </c>
+      <c r="I24" t="s">
+        <v>487</v>
+      </c>
+      <c r="J24" t="s">
+        <v>487</v>
+      </c>
+      <c r="K24" t="s">
+        <v>485</v>
+      </c>
+      <c r="L24" t="s">
         <v>492</v>
-      </c>
-      <c r="F24" t="s">
-        <v>521</v>
-      </c>
-      <c r="H24" t="s">
-        <v>529</v>
-      </c>
-      <c r="I24" t="s">
-        <v>531</v>
-      </c>
-      <c r="J24" t="s">
-        <v>531</v>
-      </c>
-      <c r="K24" t="s">
-        <v>529</v>
-      </c>
-      <c r="L24" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="E25" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="F25" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="H25" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I25" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J25" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K25" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L25" t="s">
-        <v>559</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="B26" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="C26" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="D26" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="F26" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="G26" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="H26" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="I26" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="J26" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="K26" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="L26" t="s">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="M26" t="s">
-        <v>565</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="B27" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="C27" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="E27" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="F27" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="H27" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I27" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J27" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K27" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L27" t="s">
-        <v>561</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="C28" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="E28" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="F28" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
       <c r="H28" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I28" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J28" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K28" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L28" t="s">
-        <v>562</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" t="s">
         <v>455</v>
       </c>
-      <c r="D29" t="s">
-        <v>469</v>
-      </c>
-      <c r="E29" t="s">
-        <v>497</v>
-      </c>
       <c r="F29" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="H29" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I29" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J29" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K29" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L29" t="s">
-        <v>563</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="C30" t="s">
-        <v>459</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="F30" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="H30" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="I30" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="J30" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K30" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="L30" t="s">
-        <v>564</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5216,16 +4998,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>566</v>
+        <v>494</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>567</v>
+        <v>495</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -5234,7 +5016,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -5242,684 +5024,684 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
-        <v>596</v>
+        <v>524</v>
       </c>
       <c r="C2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H2" t="s">
         <v>611</v>
-      </c>
-      <c r="D2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F2" t="s">
-        <v>650</v>
-      </c>
-      <c r="G2" t="s">
-        <v>674</v>
-      </c>
-      <c r="H2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
-        <v>597</v>
+        <v>525</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>640</v>
+        <v>568</v>
       </c>
       <c r="F3" t="s">
-        <v>651</v>
+        <v>579</v>
       </c>
       <c r="G3" t="s">
-        <v>675</v>
+        <v>603</v>
       </c>
       <c r="H3" t="s">
-        <v>686</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
-        <v>598</v>
+        <v>526</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>614</v>
+        <v>542</v>
       </c>
       <c r="F4" t="s">
-        <v>652</v>
+        <v>580</v>
       </c>
       <c r="G4" t="s">
-        <v>676</v>
+        <v>604</v>
       </c>
       <c r="H4" t="s">
-        <v>687</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
-        <v>599</v>
+        <v>527</v>
       </c>
       <c r="C5" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
       <c r="D5" t="s">
-        <v>615</v>
+        <v>543</v>
       </c>
       <c r="F5" t="s">
-        <v>653</v>
+        <v>581</v>
       </c>
       <c r="G5" t="s">
-        <v>455</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
-        <v>600</v>
+        <v>528</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>616</v>
+        <v>544</v>
       </c>
       <c r="F6" t="s">
-        <v>654</v>
+        <v>582</v>
       </c>
       <c r="G6" t="s">
-        <v>676</v>
+        <v>604</v>
       </c>
       <c r="H6" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
-        <v>601</v>
+        <v>529</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>617</v>
+        <v>545</v>
       </c>
       <c r="E7" t="s">
-        <v>641</v>
+        <v>569</v>
       </c>
       <c r="F7" t="s">
-        <v>655</v>
+        <v>583</v>
       </c>
       <c r="G7" t="s">
-        <v>455</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>690</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>527</v>
       </c>
       <c r="C8" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
       <c r="D8" t="s">
-        <v>618</v>
+        <v>546</v>
       </c>
       <c r="E8" t="s">
-        <v>642</v>
+        <v>570</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="G8" t="s">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="H8" t="s">
-        <v>691</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>575</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
-        <v>602</v>
+        <v>530</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>619</v>
+        <v>547</v>
       </c>
       <c r="F9" t="s">
-        <v>656</v>
+        <v>584</v>
       </c>
       <c r="G9" t="s">
-        <v>455</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>692</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>576</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
-        <v>601</v>
+        <v>529</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>620</v>
+        <v>548</v>
       </c>
       <c r="F10" t="s">
-        <v>657</v>
+        <v>585</v>
       </c>
       <c r="G10" t="s">
-        <v>676</v>
+        <v>604</v>
       </c>
       <c r="H10" t="s">
-        <v>693</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>577</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
-        <v>603</v>
+        <v>531</v>
       </c>
       <c r="C11" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
       <c r="D11" t="s">
-        <v>621</v>
+        <v>549</v>
       </c>
       <c r="F11" t="s">
-        <v>658</v>
+        <v>586</v>
       </c>
       <c r="G11" t="s">
-        <v>678</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>694</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>506</v>
       </c>
       <c r="B12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D12" t="s">
+        <v>550</v>
+      </c>
+      <c r="E12" t="s">
+        <v>571</v>
+      </c>
+      <c r="F12" t="s">
+        <v>587</v>
+      </c>
+      <c r="G12" t="s">
         <v>604</v>
       </c>
-      <c r="C12" t="s">
-        <v>612</v>
-      </c>
-      <c r="D12" t="s">
-        <v>622</v>
-      </c>
-      <c r="E12" t="s">
-        <v>643</v>
-      </c>
-      <c r="F12" t="s">
-        <v>659</v>
-      </c>
-      <c r="G12" t="s">
-        <v>676</v>
-      </c>
       <c r="H12" t="s">
-        <v>695</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>579</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>623</v>
+        <v>551</v>
       </c>
       <c r="F13" t="s">
-        <v>660</v>
+        <v>588</v>
       </c>
       <c r="G13" t="s">
-        <v>678</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>696</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>580</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>624</v>
+        <v>552</v>
       </c>
       <c r="E14" t="s">
-        <v>644</v>
+        <v>572</v>
       </c>
       <c r="F14" t="s">
-        <v>661</v>
+        <v>589</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>697</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
-        <v>606</v>
+        <v>534</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>625</v>
+        <v>553</v>
       </c>
       <c r="F15" t="s">
-        <v>662</v>
+        <v>590</v>
       </c>
       <c r="G15" t="s">
-        <v>678</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>698</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>626</v>
+        <v>554</v>
       </c>
       <c r="F16" t="s">
-        <v>663</v>
+        <v>591</v>
       </c>
       <c r="G16" t="s">
-        <v>679</v>
+        <v>606</v>
       </c>
       <c r="H16" t="s">
-        <v>699</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>583</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>627</v>
+        <v>555</v>
       </c>
       <c r="F17" t="s">
-        <v>664</v>
+        <v>592</v>
       </c>
       <c r="G17" t="s">
-        <v>680</v>
+        <v>607</v>
       </c>
       <c r="H17" t="s">
-        <v>700</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>584</v>
+        <v>512</v>
       </c>
       <c r="B18" t="s">
-        <v>603</v>
+        <v>531</v>
       </c>
       <c r="C18" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
       <c r="D18" t="s">
-        <v>628</v>
+        <v>556</v>
       </c>
       <c r="G18" t="s">
-        <v>678</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>701</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>585</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
-        <v>599</v>
+        <v>527</v>
       </c>
       <c r="C19" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
       <c r="D19" t="s">
-        <v>629</v>
+        <v>557</v>
       </c>
       <c r="F19" t="s">
-        <v>665</v>
+        <v>593</v>
       </c>
       <c r="G19" t="s">
-        <v>681</v>
+        <v>408</v>
       </c>
       <c r="H19" t="s">
-        <v>702</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>586</v>
+        <v>514</v>
       </c>
       <c r="B20" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>630</v>
+        <v>558</v>
       </c>
       <c r="F20" t="s">
-        <v>666</v>
+        <v>594</v>
       </c>
       <c r="G20" t="s">
-        <v>455</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>703</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>587</v>
+        <v>515</v>
       </c>
       <c r="B21" t="s">
-        <v>607</v>
+        <v>535</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>631</v>
+        <v>559</v>
       </c>
       <c r="G21" t="s">
-        <v>676</v>
+        <v>604</v>
       </c>
       <c r="H21" t="s">
-        <v>704</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="B22" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>632</v>
+        <v>560</v>
       </c>
       <c r="F22" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="G22" t="s">
-        <v>678</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>705</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>588</v>
+        <v>516</v>
       </c>
       <c r="B23" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>645</v>
+        <v>573</v>
       </c>
       <c r="G23" t="s">
-        <v>680</v>
+        <v>607</v>
       </c>
       <c r="H23" t="s">
-        <v>706</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>589</v>
+        <v>517</v>
       </c>
       <c r="B24" t="s">
-        <v>608</v>
+        <v>536</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
+        <v>561</v>
+      </c>
+      <c r="F24" t="s">
+        <v>595</v>
+      </c>
+      <c r="G24" t="s">
+        <v>606</v>
+      </c>
+      <c r="H24" t="s">
         <v>633</v>
-      </c>
-      <c r="F24" t="s">
-        <v>667</v>
-      </c>
-      <c r="G24" t="s">
-        <v>679</v>
-      </c>
-      <c r="H24" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>590</v>
+        <v>518</v>
       </c>
       <c r="B25" t="s">
-        <v>609</v>
+        <v>537</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
+        <v>562</v>
+      </c>
+      <c r="F25" t="s">
+        <v>596</v>
+      </c>
+      <c r="G25" t="s">
+        <v>608</v>
+      </c>
+      <c r="H25" t="s">
         <v>634</v>
-      </c>
-      <c r="F25" t="s">
-        <v>668</v>
-      </c>
-      <c r="G25" t="s">
-        <v>682</v>
-      </c>
-      <c r="H25" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>591</v>
+        <v>519</v>
       </c>
       <c r="B26" t="s">
-        <v>610</v>
+        <v>538</v>
       </c>
       <c r="C26" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
       <c r="D26" t="s">
+        <v>563</v>
+      </c>
+      <c r="E26" t="s">
+        <v>574</v>
+      </c>
+      <c r="F26" t="s">
+        <v>597</v>
+      </c>
+      <c r="G26" t="s">
+        <v>604</v>
+      </c>
+      <c r="H26" t="s">
         <v>635</v>
-      </c>
-      <c r="E26" t="s">
-        <v>646</v>
-      </c>
-      <c r="F26" t="s">
-        <v>669</v>
-      </c>
-      <c r="G26" t="s">
-        <v>676</v>
-      </c>
-      <c r="H26" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>592</v>
+        <v>520</v>
       </c>
       <c r="B27" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
+        <v>564</v>
+      </c>
+      <c r="F27" t="s">
+        <v>598</v>
+      </c>
+      <c r="G27" t="s">
+        <v>609</v>
+      </c>
+      <c r="H27" t="s">
         <v>636</v>
-      </c>
-      <c r="F27" t="s">
-        <v>670</v>
-      </c>
-      <c r="G27" t="s">
-        <v>683</v>
-      </c>
-      <c r="H27" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>593</v>
+        <v>521</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
+        <v>565</v>
+      </c>
+      <c r="E28" t="s">
+        <v>575</v>
+      </c>
+      <c r="F28" t="s">
+        <v>599</v>
+      </c>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" t="s">
         <v>637</v>
-      </c>
-      <c r="E28" t="s">
-        <v>647</v>
-      </c>
-      <c r="F28" t="s">
-        <v>671</v>
-      </c>
-      <c r="G28" t="s">
-        <v>455</v>
-      </c>
-      <c r="H28" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="B29" t="s">
-        <v>599</v>
+        <v>527</v>
       </c>
       <c r="C29" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
       <c r="D29" t="s">
+        <v>566</v>
+      </c>
+      <c r="E29" t="s">
+        <v>576</v>
+      </c>
+      <c r="F29" t="s">
+        <v>600</v>
+      </c>
+      <c r="G29" t="s">
+        <v>606</v>
+      </c>
+      <c r="H29" t="s">
         <v>638</v>
-      </c>
-      <c r="E29" t="s">
-        <v>648</v>
-      </c>
-      <c r="F29" t="s">
-        <v>672</v>
-      </c>
-      <c r="G29" t="s">
-        <v>679</v>
-      </c>
-      <c r="H29" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>595</v>
+        <v>523</v>
       </c>
       <c r="B30" t="s">
-        <v>597</v>
+        <v>525</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
+        <v>567</v>
+      </c>
+      <c r="E30" t="s">
+        <v>577</v>
+      </c>
+      <c r="F30" t="s">
+        <v>601</v>
+      </c>
+      <c r="G30" t="s">
+        <v>610</v>
+      </c>
+      <c r="H30" t="s">
         <v>639</v>
-      </c>
-      <c r="E30" t="s">
-        <v>649</v>
-      </c>
-      <c r="F30" t="s">
-        <v>673</v>
-      </c>
-      <c r="G30" t="s">
-        <v>684</v>
-      </c>
-      <c r="H30" t="s">
-        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -5948,321 +5730,321 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>714</v>
+        <v>640</v>
       </c>
       <c r="B2" t="s">
-        <v>743</v>
+        <v>668</v>
       </c>
       <c r="C2" t="s">
-        <v>771</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>715</v>
+        <v>641</v>
       </c>
       <c r="B3" t="s">
-        <v>744</v>
+        <v>669</v>
       </c>
       <c r="C3" t="s">
-        <v>772</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>716</v>
+        <v>642</v>
       </c>
       <c r="B4" t="s">
-        <v>745</v>
+        <v>670</v>
       </c>
       <c r="C4" t="s">
-        <v>773</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>717</v>
+        <v>643</v>
       </c>
       <c r="B5" t="s">
-        <v>746</v>
+        <v>671</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>718</v>
+        <v>644</v>
       </c>
       <c r="B6" t="s">
-        <v>747</v>
+        <v>672</v>
       </c>
       <c r="C6" t="s">
-        <v>774</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>719</v>
+        <v>645</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>673</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>720</v>
+        <v>646</v>
       </c>
       <c r="B8" t="s">
-        <v>749</v>
+        <v>674</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>721</v>
+        <v>647</v>
       </c>
       <c r="B9" t="s">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>722</v>
+        <v>648</v>
       </c>
       <c r="B10" t="s">
-        <v>654</v>
+        <v>582</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>723</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s">
-        <v>751</v>
+        <v>676</v>
       </c>
       <c r="C11" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>724</v>
+        <v>650</v>
       </c>
       <c r="B12" t="s">
-        <v>752</v>
+        <v>677</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>725</v>
+        <v>651</v>
       </c>
       <c r="B13" t="s">
-        <v>753</v>
+        <v>678</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>726</v>
+        <v>652</v>
       </c>
       <c r="B14" t="s">
-        <v>754</v>
+        <v>679</v>
       </c>
       <c r="C14" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>727</v>
+        <v>653</v>
       </c>
       <c r="B15" t="s">
-        <v>755</v>
+        <v>680</v>
       </c>
       <c r="C15" t="s">
-        <v>775</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>728</v>
+        <v>654</v>
       </c>
       <c r="B16" t="s">
-        <v>756</v>
+        <v>681</v>
       </c>
       <c r="C16" t="s">
-        <v>776</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>729</v>
+        <v>655</v>
       </c>
       <c r="B17" t="s">
-        <v>757</v>
+        <v>682</v>
       </c>
       <c r="C17" t="s">
-        <v>777</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>730</v>
+        <v>656</v>
       </c>
       <c r="B18" t="s">
-        <v>758</v>
+        <v>683</v>
       </c>
       <c r="C18" t="s">
-        <v>778</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>731</v>
+        <v>657</v>
       </c>
       <c r="B19" t="s">
-        <v>759</v>
+        <v>684</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>732</v>
+        <v>658</v>
       </c>
       <c r="B20" t="s">
-        <v>760</v>
+        <v>685</v>
       </c>
       <c r="C20" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>733</v>
+        <v>659</v>
       </c>
       <c r="B21" t="s">
-        <v>761</v>
+        <v>686</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>734</v>
+        <v>660</v>
       </c>
       <c r="B22" t="s">
-        <v>762</v>
+        <v>687</v>
       </c>
       <c r="C22" t="s">
-        <v>779</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>735</v>
+        <v>661</v>
       </c>
       <c r="B23" t="s">
-        <v>763</v>
+        <v>688</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>736</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>764</v>
+        <v>689</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="B25" t="s">
-        <v>765</v>
+        <v>690</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>738</v>
+        <v>663</v>
       </c>
       <c r="B26" t="s">
-        <v>766</v>
+        <v>691</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>739</v>
+        <v>664</v>
       </c>
       <c r="B27" t="s">
-        <v>767</v>
+        <v>692</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>740</v>
+        <v>665</v>
       </c>
       <c r="B28" t="s">
-        <v>768</v>
+        <v>693</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>741</v>
+        <v>666</v>
       </c>
       <c r="B29" t="s">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="C29" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>742</v>
+        <v>667</v>
       </c>
       <c r="B30" t="s">
-        <v>770</v>
+        <v>695</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/samples/5-Sheets-SA-عنية-مصانع-preview.xlsx
+++ b/samples/5-Sheets-SA-عنية-مصانع-preview.xlsx
@@ -614,8 +614,7 @@
     <t>0163976277</t>
   </si>
   <si>
-    <t>المنتجات
-البند...</t>
+    <t>المنتجات البند...</t>
   </si>
   <si>
     <t>Company Name</t>
@@ -1260,8 +1259,7 @@
     <t>صناعة المعدات ...</t>
   </si>
   <si>
-    <t>الأثاث
- ...</t>
+    <t>الأثاث        ...</t>
   </si>
   <si>
     <t>المواد الغذائي...</t>
@@ -1273,8 +1271,7 @@
     <t>صُنع منتجات ال...</t>
   </si>
   <si>
-    <t>البلاستيك
-...</t>
+    <t>البلاستيك     ...</t>
   </si>
   <si>
     <t>+966138196321</t>
@@ -1488,16 +1485,13 @@
 ريال سعودي</t>
   </si>
   <si>
-    <t>100
-ريال سعودي...</t>
-  </si>
-  <si>
-    <t>5 M
-ريال سعودي...</t>
-  </si>
-  <si>
-    <t>1.5 M
-ريال سعو...</t>
+    <t>100 ريال سعودي...</t>
+  </si>
+  <si>
+    <t>5 M ريال سعودي...</t>
+  </si>
+  <si>
+    <t>1.5 M ريال سعو...</t>
   </si>
   <si>
     <t>3</t>
